--- a/src/attributions/attributions_ig_traj_333.xlsx
+++ b/src/attributions/attributions_ig_traj_333.xlsx
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>-0</v>
@@ -1603,13 +1603,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>-0</v>
@@ -1630,13 +1630,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>-0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
         <v>-0</v>
@@ -1684,13 +1684,13 @@
         <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
         <v>-0</v>
@@ -1711,13 +1711,13 @@
         <v>0</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV3" t="n">
         <v>0</v>
       </c>
       <c r="AW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX3" t="n">
         <v>-0</v>
@@ -1738,13 +1738,13 @@
         <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE3" t="n">
         <v>0</v>
       </c>
       <c r="BF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG3" t="n">
         <v>-0</v>
@@ -1765,13 +1765,13 @@
         <v>0</v>
       </c>
       <c r="BM3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN3" t="n">
         <v>0</v>
       </c>
       <c r="BO3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BP3" t="n">
         <v>-0</v>
@@ -1792,13 +1792,13 @@
         <v>0</v>
       </c>
       <c r="BV3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW3" t="n">
         <v>0</v>
       </c>
       <c r="BX3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY3" t="n">
         <v>-0</v>
@@ -1819,13 +1819,13 @@
         <v>0</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF3" t="n">
         <v>0</v>
       </c>
       <c r="CG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH3" t="n">
         <v>-0</v>
@@ -1846,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="CN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO3" t="n">
         <v>0</v>
       </c>
       <c r="CP3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ3" t="n">
         <v>-0</v>
@@ -1900,13 +1900,13 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG3" t="n">
         <v>0</v>
       </c>
       <c r="DH3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DI3" t="n">
         <v>-0</v>
@@ -1927,13 +1927,13 @@
         <v>0</v>
       </c>
       <c r="DO3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP3" t="n">
         <v>0</v>
       </c>
       <c r="DQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR3" t="n">
         <v>-0</v>
@@ -1981,13 +1981,13 @@
         <v>0</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH3" t="n">
         <v>0</v>
       </c>
       <c r="EI3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ3" t="n">
         <v>-0</v>
@@ -2008,13 +2008,13 @@
         <v>0</v>
       </c>
       <c r="EP3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ3" t="n">
         <v>0</v>
       </c>
       <c r="ER3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES3" t="n">
         <v>-0</v>
@@ -2035,13 +2035,13 @@
         <v>0</v>
       </c>
       <c r="EY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ3" t="n">
         <v>0</v>
       </c>
       <c r="FA3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB3" t="n">
         <v>-0</v>
@@ -2062,13 +2062,13 @@
         <v>0</v>
       </c>
       <c r="FH3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI3" t="n">
         <v>0</v>
       </c>
       <c r="FJ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FK3" t="n">
         <v>-0</v>
@@ -2145,19 +2145,19 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.04058840950246643</v>
+        <v>0.05073173871442074</v>
       </c>
       <c r="C4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08106300991273381</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.004510399506509826</v>
+        <v>-0.009061868139488227</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0.0312696448115297</v>
       </c>
       <c r="G4" t="n">
         <v>-0</v>
@@ -2172,46 +2172,46 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.04150732461886446</v>
+        <v>0.03116121766116003</v>
       </c>
       <c r="L4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0449551577872736</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.001803707713644185</v>
+        <v>-0.01063874896148698</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>-0.04827524781179004</v>
       </c>
       <c r="P4" t="n">
         <v>-0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R4" t="n">
         <v>-0</v>
       </c>
       <c r="S4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1.353968833019565e-11</v>
+        <v>0.002171208602063457</v>
       </c>
       <c r="U4" t="n">
         <v>-0</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.008780090309134186</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.01726960187835805</v>
+        <v>-0.001926237283427344</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>6.54445630713856e-12</v>
       </c>
       <c r="Y4" t="n">
         <v>-0</v>
@@ -2220,25 +2220,25 @@
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.09942980553139158</v>
+        <v>0.0135885406314294</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.1130051051333292</v>
+        <v>-0</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.07374418792806657</v>
+        <v>0.02647293872004262</v>
       </c>
       <c r="AG4" t="n">
-        <v>-0</v>
+        <v>0.002206291865418289</v>
       </c>
       <c r="AH4" t="n">
         <v>-0</v>
@@ -2253,46 +2253,46 @@
         <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>-0.04992222115417751</v>
+        <v>0.01246548764900511</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.0204484112920711</v>
+        <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>-0.03184511087609142</v>
+        <v>-0.009900070526612237</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0</v>
+        <v>-0.02058770554167406</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU4" t="n">
-        <v>-0.1692497733568078</v>
+        <v>0.07901018838205426</v>
       </c>
       <c r="AV4" t="n">
         <v>-0</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.05021592725096045</v>
+        <v>0</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.03885639879437493</v>
+        <v>-0.004147202623194577</v>
       </c>
       <c r="AY4" t="n">
-        <v>0</v>
+        <v>-0.07212894949844098</v>
       </c>
       <c r="AZ4" t="n">
         <v>0</v>
@@ -2304,22 +2304,22 @@
         <v>0</v>
       </c>
       <c r="BC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>-0.01478006854042049</v>
+        <v>0.02252771155582892</v>
       </c>
       <c r="BE4" t="n">
         <v>0</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.05923805033044029</v>
+        <v>0</v>
       </c>
       <c r="BG4" t="n">
-        <v>-0.002852743763364475</v>
+        <v>-0.02712414936525917</v>
       </c>
       <c r="BH4" t="n">
-        <v>-0</v>
+        <v>-0.01982012595775389</v>
       </c>
       <c r="BI4" t="n">
         <v>-0</v>
@@ -2334,19 +2334,19 @@
         <v>-0</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.03266884789360928</v>
+        <v>0.01845800309886982</v>
       </c>
       <c r="BN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.03630586434820172</v>
+        <v>-0</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.01593644584164729</v>
+        <v>-0.007197345366100576</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0</v>
+        <v>0.01256712121898542</v>
       </c>
       <c r="BR4" t="n">
         <v>-0</v>
@@ -2358,49 +2358,49 @@
         <v>0</v>
       </c>
       <c r="BU4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV4" t="n">
-        <v>-0.006433322962780758</v>
+        <v>0.03837777069060055</v>
       </c>
       <c r="BW4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.08156144918738098</v>
+        <v>0</v>
       </c>
       <c r="BY4" t="n">
-        <v>-0.05325055113959731</v>
+        <v>-0.0155409853808297</v>
       </c>
       <c r="BZ4" t="n">
-        <v>-0</v>
+        <v>-0.01155018090673708</v>
       </c>
       <c r="CA4" t="n">
         <v>0</v>
       </c>
       <c r="CB4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC4" t="n">
         <v>0</v>
       </c>
       <c r="CD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.05043258374684938</v>
+        <v>-0.02113388441307222</v>
       </c>
       <c r="CF4" t="n">
         <v>0</v>
       </c>
       <c r="CG4" t="n">
-        <v>-0.03899136926958976</v>
+        <v>0</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.02803891751793627</v>
+        <v>0.001159694317166551</v>
       </c>
       <c r="CI4" t="n">
-        <v>-0</v>
+        <v>0.03398702694357228</v>
       </c>
       <c r="CJ4" t="n">
         <v>0</v>
@@ -2415,22 +2415,22 @@
         <v>-0</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.002216836558956413</v>
+        <v>0.004918058319427301</v>
       </c>
       <c r="CO4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP4" t="n">
-        <v>-0.003925636169812468</v>
+        <v>0</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.05883136140469342</v>
+        <v>0.007569279297261219</v>
       </c>
       <c r="CR4" t="n">
-        <v>0</v>
+        <v>-0.002475424065729619</v>
       </c>
       <c r="CS4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT4" t="n">
         <v>-0</v>
@@ -2439,22 +2439,22 @@
         <v>0</v>
       </c>
       <c r="CV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.05515064346207547</v>
+        <v>-0.0139748585906513</v>
       </c>
       <c r="CX4" t="n">
         <v>-0</v>
       </c>
       <c r="CY4" t="n">
-        <v>-0.03238266380360376</v>
+        <v>0</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.01857784273935624</v>
+        <v>-0.003265748272880706</v>
       </c>
       <c r="DA4" t="n">
-        <v>0</v>
+        <v>0.03575527638517534</v>
       </c>
       <c r="DB4" t="n">
         <v>-0</v>
@@ -2469,46 +2469,46 @@
         <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.1671542437194266</v>
+        <v>-0.01993565660341664</v>
       </c>
       <c r="DG4" t="n">
         <v>0</v>
       </c>
       <c r="DH4" t="n">
-        <v>-0.04320185108973899</v>
+        <v>-0</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.01432081048668852</v>
+        <v>0.01563972795319196</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0</v>
+        <v>0.05284671201092127</v>
       </c>
       <c r="DK4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL4" t="n">
         <v>0</v>
       </c>
       <c r="DM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN4" t="n">
         <v>-0</v>
       </c>
       <c r="DO4" t="n">
-        <v>-0.03143318643192272</v>
+        <v>-0.01070235084618218</v>
       </c>
       <c r="DP4" t="n">
         <v>0</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.02931185216849202</v>
+        <v>-0</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.08025914628793231</v>
+        <v>0.01181918432252689</v>
       </c>
       <c r="DS4" t="n">
-        <v>-0</v>
+        <v>0.008343851599905416</v>
       </c>
       <c r="DT4" t="n">
         <v>0</v>
@@ -2520,22 +2520,22 @@
         <v>0</v>
       </c>
       <c r="DW4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0.07776985940935846</v>
+        <v>0.002712912444889249</v>
       </c>
       <c r="DY4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.08573557997405082</v>
+        <v>0</v>
       </c>
       <c r="EA4" t="n">
-        <v>-0.006644898791355838</v>
+        <v>0.002090705727004243</v>
       </c>
       <c r="EB4" t="n">
-        <v>-0</v>
+        <v>-0.02809196976289825</v>
       </c>
       <c r="EC4" t="n">
         <v>-0</v>
@@ -2544,31 +2544,31 @@
         <v>-0</v>
       </c>
       <c r="EE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.05361871183730811</v>
+        <v>-0.00621544896135188</v>
       </c>
       <c r="EH4" t="n">
         <v>-0</v>
       </c>
       <c r="EI4" t="n">
-        <v>-0.03171335677459366</v>
+        <v>0</v>
       </c>
       <c r="EJ4" t="n">
-        <v>-0.06685065158167926</v>
+        <v>5.253678662441097e-05</v>
       </c>
       <c r="EK4" t="n">
-        <v>-0</v>
+        <v>0.01547518581863192</v>
       </c>
       <c r="EL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN4" t="n">
         <v>0</v>
@@ -2577,22 +2577,22 @@
         <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.0326994430428387</v>
+        <v>-0.007945415379118614</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER4" t="n">
-        <v>-0.002973003701213055</v>
+        <v>0</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.06495650633554376</v>
+        <v>-0.002059974757128421</v>
       </c>
       <c r="ET4" t="n">
-        <v>0</v>
+        <v>0.03703504620981968</v>
       </c>
       <c r="EU4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV4" t="n">
         <v>0</v>
@@ -2601,52 +2601,52 @@
         <v>-0</v>
       </c>
       <c r="EX4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.0357215836737263</v>
+        <v>-0.01665228462209176</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA4" t="n">
-        <v>-0.02213225726910055</v>
+        <v>0</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.03010916139243554</v>
+        <v>-0.0002265650515275106</v>
       </c>
       <c r="FC4" t="n">
-        <v>0</v>
+        <v>0.03351457600290878</v>
       </c>
       <c r="FD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE4" t="n">
         <v>0</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH4" t="n">
-        <v>-0.01198842126061769</v>
+        <v>-0.01589381819342347</v>
       </c>
       <c r="FI4" t="n">
         <v>0</v>
       </c>
       <c r="FJ4" t="n">
-        <v>-0.01880604303967836</v>
+        <v>-0</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.03789521498670615</v>
+        <v>-0.009383888805572029</v>
       </c>
       <c r="FL4" t="n">
-        <v>0</v>
+        <v>0.006181035385843601</v>
       </c>
       <c r="FM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN4" t="n">
         <v>-0</v>
@@ -2655,22 +2655,22 @@
         <v>0</v>
       </c>
       <c r="FP4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>-0.009857295624087849</v>
+        <v>-0.001494771551091919</v>
       </c>
       <c r="FR4" t="n">
         <v>0</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.1034362492171119</v>
+        <v>0</v>
       </c>
       <c r="FT4" t="n">
-        <v>-0.003410808630622393</v>
+        <v>-0.007259156052607849</v>
       </c>
       <c r="FU4" t="n">
-        <v>0</v>
+        <v>0.03344864563700672</v>
       </c>
       <c r="FV4" t="n">
         <v>-0</v>
@@ -2679,25 +2679,25 @@
         <v>-0</v>
       </c>
       <c r="FX4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.03750162729610046</v>
+        <v>-0.02053560032634036</v>
       </c>
       <c r="GA4" t="n">
         <v>0</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.09242692624798934</v>
+        <v>-0</v>
       </c>
       <c r="GC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD4" t="n">
-        <v>-0</v>
+        <v>-0.007124303183818631</v>
       </c>
       <c r="GE4" t="n">
         <v>0</v>
@@ -2714,16 +2714,16 @@
         <v>-0</v>
       </c>
       <c r="B5" t="n">
-        <v>-0</v>
+        <v>0.120732707086409</v>
       </c>
       <c r="C5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.05491936290039388</v>
+        <v>-0.01751615176287274</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02627546196510092</v>
+        <v>-0.03815993789536147</v>
       </c>
       <c r="F5" t="n">
         <v>-0</v>
@@ -2732,25 +2732,25 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.02899473778214868</v>
+        <v>-0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J5" t="n">
         <v>-0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.06352386714783066</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01878944686716763</v>
+        <v>-0.0050486469338349</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.0007017078848303647</v>
+        <v>-0.0505366653557975</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -2759,61 +2759,61 @@
         <v>-0</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.00824866015834865</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.01874785179820941</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.006442635207080796</v>
+        <v>-0.007435072692708723</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.02460460304761605</v>
+        <v>0.0105734834384836</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.0157757683189031</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0</v>
+        <v>0.03216571708484338</v>
       </c>
       <c r="AD5" t="n">
         <v>-0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.0006560229022999335</v>
+        <v>0.01662699618707869</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.04638214079705798</v>
+        <v>0.03488258559280059</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.02143115908476383</v>
+        <v>0</v>
       </c>
       <c r="AJ5" t="n">
         <v>-0</v>
@@ -2822,25 +2822,25 @@
         <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>-0</v>
+        <v>0.002311423037906336</v>
       </c>
       <c r="AM5" t="n">
         <v>-0</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.04789354410254437</v>
+        <v>-0.03846261219226659</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.05497949937714743</v>
+        <v>-0.06505413448277575</v>
       </c>
       <c r="AP5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ5" t="n">
         <v>-0</v>
       </c>
       <c r="AR5" t="n">
-        <v>-0.0143769529784052</v>
+        <v>0</v>
       </c>
       <c r="AS5" t="n">
         <v>0</v>
@@ -2849,16 +2849,16 @@
         <v>-0</v>
       </c>
       <c r="AU5" t="n">
-        <v>-0</v>
+        <v>0.3309074165875001</v>
       </c>
       <c r="AV5" t="n">
         <v>-0</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.1052063569756819</v>
+        <v>0.0266549337979013</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.08618786574284396</v>
+        <v>0.1195665406500668</v>
       </c>
       <c r="AY5" t="n">
         <v>-0</v>
@@ -2867,25 +2867,25 @@
         <v>0</v>
       </c>
       <c r="BA5" t="n">
-        <v>-0.1264148241572957</v>
+        <v>-0</v>
       </c>
       <c r="BB5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD5" t="n">
-        <v>0</v>
+        <v>-0.01057305348434581</v>
       </c>
       <c r="BE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.00693285702943476</v>
+        <v>-0.03656755909911736</v>
       </c>
       <c r="BG5" t="n">
-        <v>-0.02324358831078476</v>
+        <v>-0.07665749662110231</v>
       </c>
       <c r="BH5" t="n">
         <v>0</v>
@@ -2894,52 +2894,52 @@
         <v>-0</v>
       </c>
       <c r="BJ5" t="n">
-        <v>-0.02346188425103231</v>
+        <v>0</v>
       </c>
       <c r="BK5" t="n">
         <v>0</v>
       </c>
       <c r="BL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM5" t="n">
-        <v>0</v>
+        <v>0.09812450174497737</v>
       </c>
       <c r="BN5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.02098898963464943</v>
+        <v>0.04041624796514907</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.001165799882335125</v>
+        <v>0.1229437607784086</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.0583994168517226</v>
+        <v>-0</v>
       </c>
       <c r="BT5" t="n">
         <v>-0</v>
       </c>
       <c r="BU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV5" t="n">
-        <v>0</v>
+        <v>0.1660622415954537</v>
       </c>
       <c r="BW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.104373662912354</v>
+        <v>0.0105056275819278</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.02075083606888728</v>
+        <v>0.02393521587133362</v>
       </c>
       <c r="BZ5" t="n">
         <v>-0</v>
@@ -2948,34 +2948,34 @@
         <v>0</v>
       </c>
       <c r="CB5" t="n">
-        <v>-0.08432464740065834</v>
+        <v>-0</v>
       </c>
       <c r="CC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE5" t="n">
-        <v>-0</v>
+        <v>-0.05345070854968942</v>
       </c>
       <c r="CF5" t="n">
         <v>0</v>
       </c>
       <c r="CG5" t="n">
-        <v>-0.05404369795887353</v>
+        <v>0.01452243289265946</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.005814524696911803</v>
+        <v>0.01011502481202406</v>
       </c>
       <c r="CI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.03346129096032574</v>
+        <v>0</v>
       </c>
       <c r="CL5" t="n">
         <v>-0</v>
@@ -2984,16 +2984,16 @@
         <v>0</v>
       </c>
       <c r="CN5" t="n">
-        <v>-0</v>
+        <v>-0.01233330782207847</v>
       </c>
       <c r="CO5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP5" t="n">
-        <v>-0.0310403922260552</v>
+        <v>-0.004646063176539195</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.03678759690030257</v>
+        <v>-0.03581704542274585</v>
       </c>
       <c r="CR5" t="n">
         <v>0</v>
@@ -3002,79 +3002,79 @@
         <v>0</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.00479111605241197</v>
+        <v>-0</v>
       </c>
       <c r="CU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW5" t="n">
-        <v>0</v>
+        <v>-0.03490031497408784</v>
       </c>
       <c r="CX5" t="n">
         <v>-0</v>
       </c>
       <c r="CY5" t="n">
-        <v>-0.04078536042610837</v>
+        <v>0.02299205390356017</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.01666800811076675</v>
+        <v>0.02129276288252495</v>
       </c>
       <c r="DA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.01990094558575996</v>
+        <v>0</v>
       </c>
       <c r="DD5" t="n">
         <v>0</v>
       </c>
       <c r="DE5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF5" t="n">
-        <v>0</v>
+        <v>-0.001694445936959804</v>
       </c>
       <c r="DG5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH5" t="n">
-        <v>-0.002533833869021601</v>
+        <v>0.009196208898524924</v>
       </c>
       <c r="DI5" t="n">
-        <v>-0.02691405005564114</v>
+        <v>-0.04324870923045434</v>
       </c>
       <c r="DJ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL5" t="n">
-        <v>-0.0103379717692602</v>
+        <v>-0</v>
       </c>
       <c r="DM5" t="n">
         <v>0</v>
       </c>
       <c r="DN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO5" t="n">
-        <v>0</v>
+        <v>-0.07039063268546886</v>
       </c>
       <c r="DP5" t="n">
         <v>0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>-0.007434949972721711</v>
+        <v>0.002327690947933099</v>
       </c>
       <c r="DR5" t="n">
-        <v>-0.0239300525446756</v>
+        <v>0.006384053633839489</v>
       </c>
       <c r="DS5" t="n">
         <v>0</v>
@@ -3083,61 +3083,61 @@
         <v>0</v>
       </c>
       <c r="DU5" t="n">
-        <v>0.001726478013576995</v>
+        <v>0</v>
       </c>
       <c r="DV5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX5" t="n">
-        <v>-0</v>
+        <v>-0.01634142620028842</v>
       </c>
       <c r="DY5" t="n">
         <v>0</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.01534601671909597</v>
+        <v>-0.02954057605224916</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.01047927721538809</v>
+        <v>-0.02515061323581668</v>
       </c>
       <c r="EB5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.04975874875183352</v>
+        <v>-0</v>
       </c>
       <c r="EE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF5" t="n">
         <v>0</v>
       </c>
       <c r="EG5" t="n">
-        <v>-0</v>
+        <v>-0.04472602367675903</v>
       </c>
       <c r="EH5" t="n">
         <v>-0</v>
       </c>
       <c r="EI5" t="n">
-        <v>-0.04615158066868765</v>
+        <v>0.0128299541465501</v>
       </c>
       <c r="EJ5" t="n">
-        <v>-0.05117460301025637</v>
+        <v>0.0578841630572443</v>
       </c>
       <c r="EK5" t="n">
         <v>0</v>
       </c>
       <c r="EL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.0519602831199421</v>
+        <v>-0</v>
       </c>
       <c r="EN5" t="n">
         <v>-0</v>
@@ -3146,52 +3146,52 @@
         <v>0</v>
       </c>
       <c r="EP5" t="n">
-        <v>0</v>
+        <v>-0.03777218214625174</v>
       </c>
       <c r="EQ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER5" t="n">
-        <v>-0.02927704812647699</v>
+        <v>0.02999814895863513</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.04334242707345994</v>
+        <v>0.003166278058382827</v>
       </c>
       <c r="ET5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV5" t="n">
-        <v>-0.04863607217181416</v>
+        <v>0</v>
       </c>
       <c r="EW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX5" t="n">
         <v>0</v>
       </c>
       <c r="EY5" t="n">
-        <v>0</v>
+        <v>-0.03549063391344655</v>
       </c>
       <c r="EZ5" t="n">
         <v>0</v>
       </c>
       <c r="FA5" t="n">
-        <v>-0.03664407683387411</v>
+        <v>0.02372738818915765</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.01036467685734444</v>
+        <v>0.02299993997412304</v>
       </c>
       <c r="FC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE5" t="n">
-        <v>0.03343364865954845</v>
+        <v>-0</v>
       </c>
       <c r="FF5" t="n">
         <v>-0</v>
@@ -3200,16 +3200,16 @@
         <v>0</v>
       </c>
       <c r="FH5" t="n">
-        <v>-0</v>
+        <v>0.02372774061444633</v>
       </c>
       <c r="FI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ5" t="n">
-        <v>-0.04477506635219959</v>
+        <v>-0.04325071857824567</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.06165677699512092</v>
+        <v>0.003783272673161545</v>
       </c>
       <c r="FL5" t="n">
         <v>-0</v>
@@ -3218,168 +3218,168 @@
         <v>0</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.01035882118627156</v>
+        <v>0</v>
       </c>
       <c r="FO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP5" t="n">
         <v>0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0</v>
+        <v>-0.05778701431796687</v>
       </c>
       <c r="FR5" t="n">
         <v>0</v>
       </c>
       <c r="FS5" t="n">
-        <v>1.698854445488723e-05</v>
+        <v>0.01605774659612588</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.04853863602489145</v>
+        <v>0.033248889974295</v>
       </c>
       <c r="FU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.04921250874455671</v>
+        <v>0</v>
       </c>
       <c r="FX5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY5" t="n">
         <v>-0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0</v>
+        <v>-0.01850775872719179</v>
       </c>
       <c r="GA5" t="n">
         <v>-0</v>
       </c>
       <c r="GB5" t="n">
-        <v>-0.00674416925570106</v>
+        <v>-0.004226824336054941</v>
       </c>
       <c r="GC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE5" t="n">
         <v>-0</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.01069979853928325</v>
+        <v>-0</v>
       </c>
       <c r="GG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.009086201133982914</v>
+        <v>0.02075325243371043</v>
       </c>
       <c r="C6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.08899134858492785</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0196439819393776</v>
+        <v>-0.004462857198888648</v>
       </c>
       <c r="F6" t="n">
-        <v>-0</v>
+        <v>-0.00184847391316394</v>
       </c>
       <c r="G6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.0204652500497579</v>
+        <v>0.01047973103551619</v>
       </c>
       <c r="L6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.05756697582426879</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.005249569140399236</v>
+        <v>-0.009280877969980884</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-0.007300979938622733</v>
       </c>
       <c r="P6" t="n">
         <v>-0</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>-5.307834423020575e-12</v>
+        <v>6.237340830785819e-05</v>
       </c>
       <c r="U6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.02881665920727859</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.04200617808040358</v>
+        <v>-0.001250922278959429</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>6.371818933789328e-12</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.03396920054915732</v>
+        <v>0.0161991028333597</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.07514886522349537</v>
+        <v>-0</v>
       </c>
       <c r="AF6" t="n">
-        <v>-0.04269396851899567</v>
+        <v>0.01660054066545273</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>0.002789304302605437</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
@@ -3391,46 +3391,46 @@
         <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>-0.03550979854731787</v>
+        <v>0.005314175906192686</v>
       </c>
       <c r="AM6" t="n">
         <v>-0</v>
       </c>
       <c r="AN6" t="n">
-        <v>-0.003258038261609658</v>
+        <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>-0.001253026935517888</v>
+        <v>-0.01305486385079545</v>
       </c>
       <c r="AP6" t="n">
-        <v>-0</v>
+        <v>-0.007051400745345513</v>
       </c>
       <c r="AQ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU6" t="n">
-        <v>-0.1608103392617056</v>
+        <v>0.04821149879011304</v>
       </c>
       <c r="AV6" t="n">
         <v>0</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.02803719509602005</v>
+        <v>0</v>
       </c>
       <c r="AX6" t="n">
-        <v>-0.02323020754247113</v>
+        <v>-0.00129857213279719</v>
       </c>
       <c r="AY6" t="n">
-        <v>0</v>
+        <v>-0.01152339539348196</v>
       </c>
       <c r="AZ6" t="n">
         <v>0</v>
@@ -3439,25 +3439,25 @@
         <v>0</v>
       </c>
       <c r="BB6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC6" t="n">
         <v>-0</v>
       </c>
       <c r="BD6" t="n">
-        <v>-0.007872603385597735</v>
+        <v>0.004705573751630554</v>
       </c>
       <c r="BE6" t="n">
         <v>0</v>
       </c>
       <c r="BF6" t="n">
-        <v>0.07367634756635966</v>
+        <v>0</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.01167665152874583</v>
+        <v>-0.01553646331462979</v>
       </c>
       <c r="BH6" t="n">
-        <v>-0</v>
+        <v>-0.002215336546293565</v>
       </c>
       <c r="BI6" t="n">
         <v>-0</v>
@@ -3466,28 +3466,28 @@
         <v>0</v>
       </c>
       <c r="BK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL6" t="n">
         <v>-0</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.04511492099585212</v>
+        <v>0.01797925896699246</v>
       </c>
       <c r="BN6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.04482428610623922</v>
+        <v>-0</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.03795494843754058</v>
+        <v>0.009395689952312467</v>
       </c>
       <c r="BQ6" t="n">
-        <v>0</v>
+        <v>0.01028846487540136</v>
       </c>
       <c r="BR6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS6" t="n">
         <v>0</v>
@@ -3496,49 +3496,49 @@
         <v>0</v>
       </c>
       <c r="BU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV6" t="n">
-        <v>-0.009721989671574598</v>
+        <v>0.01286620016848678</v>
       </c>
       <c r="BW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX6" t="n">
-        <v>0.05275820290420526</v>
+        <v>0</v>
       </c>
       <c r="BY6" t="n">
-        <v>-0.00447735513002324</v>
+        <v>-0.00883714269249134</v>
       </c>
       <c r="BZ6" t="n">
-        <v>-0</v>
+        <v>0.01549978359452945</v>
       </c>
       <c r="CA6" t="n">
         <v>0</v>
       </c>
       <c r="CB6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE6" t="n">
-        <v>0.03799114543345875</v>
+        <v>-0.003820178568186128</v>
       </c>
       <c r="CF6" t="n">
         <v>-0</v>
       </c>
       <c r="CG6" t="n">
-        <v>-0.03835047122841487</v>
+        <v>-0</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.02002494408068188</v>
+        <v>-0.0004794067320136263</v>
       </c>
       <c r="CI6" t="n">
-        <v>0</v>
+        <v>0.00635223263149118</v>
       </c>
       <c r="CJ6" t="n">
         <v>0</v>
@@ -3547,109 +3547,109 @@
         <v>0</v>
       </c>
       <c r="CL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM6" t="n">
         <v>0</v>
       </c>
       <c r="CN6" t="n">
-        <v>0.01472150390578327</v>
+        <v>0.002826136549778989</v>
       </c>
       <c r="CO6" t="n">
         <v>-0</v>
       </c>
       <c r="CP6" t="n">
-        <v>-0.01859541110470265</v>
+        <v>-0</v>
       </c>
       <c r="CQ6" t="n">
-        <v>0.03972095970544592</v>
+        <v>0.003742752563579067</v>
       </c>
       <c r="CR6" t="n">
-        <v>0</v>
+        <v>-0.007506715894736009</v>
       </c>
       <c r="CS6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT6" t="n">
         <v>-0</v>
       </c>
       <c r="CU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW6" t="n">
-        <v>0.04084935944671075</v>
+        <v>0.0002316988119415102</v>
       </c>
       <c r="CX6" t="n">
         <v>0</v>
       </c>
       <c r="CY6" t="n">
-        <v>-0.03124507442892579</v>
+        <v>0</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.007980968283777357</v>
+        <v>-2.894698107745939e-06</v>
       </c>
       <c r="DA6" t="n">
-        <v>-0</v>
+        <v>0.00880926801409624</v>
       </c>
       <c r="DB6" t="n">
         <v>-0</v>
       </c>
       <c r="DC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF6" t="n">
-        <v>0.1226215980387602</v>
+        <v>-0.005917123852575183</v>
       </c>
       <c r="DG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH6" t="n">
-        <v>-0.0272169521807347</v>
+        <v>-0</v>
       </c>
       <c r="DI6" t="n">
-        <v>3.92446184442959e-06</v>
+        <v>0.0001304584697382355</v>
       </c>
       <c r="DJ6" t="n">
-        <v>0</v>
+        <v>0.01126996788730654</v>
       </c>
       <c r="DK6" t="n">
         <v>0</v>
       </c>
       <c r="DL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM6" t="n">
         <v>0</v>
       </c>
       <c r="DN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO6" t="n">
-        <v>-0.0154423203918028</v>
+        <v>0.005743005008391147</v>
       </c>
       <c r="DP6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ6" t="n">
-        <v>0.01217251592410518</v>
+        <v>-0</v>
       </c>
       <c r="DR6" t="n">
-        <v>0.07664761378952421</v>
+        <v>0.01116869888005113</v>
       </c>
       <c r="DS6" t="n">
-        <v>0</v>
+        <v>0.002845717696592021</v>
       </c>
       <c r="DT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU6" t="n">
         <v>0</v>
@@ -3661,22 +3661,22 @@
         <v>-0</v>
       </c>
       <c r="DX6" t="n">
-        <v>0.0174145479020045</v>
+        <v>-0.005756821124709335</v>
       </c>
       <c r="DY6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ6" t="n">
-        <v>0.04376743894395271</v>
+        <v>0</v>
       </c>
       <c r="EA6" t="n">
-        <v>0.00983148114557366</v>
+        <v>-0.00643064594030704</v>
       </c>
       <c r="EB6" t="n">
-        <v>-0</v>
+        <v>-0.005365557992427055</v>
       </c>
       <c r="EC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED6" t="n">
         <v>-0</v>
@@ -3685,52 +3685,52 @@
         <v>-0</v>
       </c>
       <c r="EF6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG6" t="n">
-        <v>0.03647561129160361</v>
+        <v>-0.001564250651438007</v>
       </c>
       <c r="EH6" t="n">
         <v>-0</v>
       </c>
       <c r="EI6" t="n">
-        <v>-0.05486423961035292</v>
+        <v>0</v>
       </c>
       <c r="EJ6" t="n">
-        <v>-0.04304988158518994</v>
+        <v>0.001582721337618032</v>
       </c>
       <c r="EK6" t="n">
-        <v>0</v>
+        <v>0.008198264863497352</v>
       </c>
       <c r="EL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM6" t="n">
         <v>0</v>
       </c>
       <c r="EN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO6" t="n">
         <v>0</v>
       </c>
       <c r="EP6" t="n">
-        <v>0.0169232367137732</v>
+        <v>-0.003235895434232502</v>
       </c>
       <c r="EQ6" t="n">
         <v>0</v>
       </c>
       <c r="ER6" t="n">
-        <v>0.0004455044539746606</v>
+        <v>-0</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.04200349000417912</v>
+        <v>-0.008881044523213925</v>
       </c>
       <c r="ET6" t="n">
-        <v>-0</v>
+        <v>0.02936960272974701</v>
       </c>
       <c r="EU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV6" t="n">
         <v>0</v>
@@ -3739,109 +3739,109 @@
         <v>-0</v>
       </c>
       <c r="EX6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY6" t="n">
-        <v>0.0284202272807736</v>
+        <v>0.001996510201184926</v>
       </c>
       <c r="EZ6" t="n">
         <v>-0</v>
       </c>
       <c r="FA6" t="n">
-        <v>-0.02558490781275964</v>
+        <v>-0</v>
       </c>
       <c r="FB6" t="n">
-        <v>0.02099161842009891</v>
+        <v>-0.001946269456356395</v>
       </c>
       <c r="FC6" t="n">
-        <v>0</v>
+        <v>0.009543402743552833</v>
       </c>
       <c r="FD6" t="n">
         <v>0</v>
       </c>
       <c r="FE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF6" t="n">
         <v>-0</v>
       </c>
       <c r="FG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH6" t="n">
-        <v>-0.04192185052003595</v>
+        <v>-0.007355970808354348</v>
       </c>
       <c r="FI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ6" t="n">
-        <v>-0.02864192174393325</v>
+        <v>-0</v>
       </c>
       <c r="FK6" t="n">
-        <v>0.00503816999744713</v>
+        <v>-0.01464861573104116</v>
       </c>
       <c r="FL6" t="n">
-        <v>0</v>
+        <v>0.01669977645085803</v>
       </c>
       <c r="FM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO6" t="n">
         <v>0</v>
       </c>
       <c r="FP6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0.01063387014069166</v>
+        <v>-0.001245381030882384</v>
       </c>
       <c r="FR6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS6" t="n">
-        <v>0.06242170952042558</v>
+        <v>-0</v>
       </c>
       <c r="FT6" t="n">
-        <v>0.008175060067101962</v>
+        <v>-0.0009123254650240487</v>
       </c>
       <c r="FU6" t="n">
-        <v>0</v>
+        <v>0.001361191832015536</v>
       </c>
       <c r="FV6" t="n">
         <v>-0</v>
       </c>
       <c r="FW6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FY6" t="n">
         <v>-0</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0.0310026251739067</v>
+        <v>-0.01570381689170857</v>
       </c>
       <c r="GA6" t="n">
         <v>0</v>
       </c>
       <c r="GB6" t="n">
-        <v>0.04471913782124901</v>
+        <v>0</v>
       </c>
       <c r="GC6" t="n">
         <v>-0</v>
       </c>
       <c r="GD6" t="n">
-        <v>-0</v>
+        <v>-0.0009161386886722363</v>
       </c>
       <c r="GE6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG6" t="n">
         <v>0</v>
@@ -3852,43 +3852,43 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.09096484747838936</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.101035789800681e-11</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07438553045338697</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01939040658158687</v>
+        <v>-0.008370720227754303</v>
       </c>
       <c r="F7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I7" t="n">
-        <v>-0</v>
+        <v>-2.75310186517396e-11</v>
       </c>
       <c r="J7" t="n">
         <v>-0</v>
       </c>
       <c r="K7" t="n">
-        <v>-0</v>
+        <v>0.04022374041269448</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.01141219404376537</v>
+        <v>-0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.04518854299929122</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.02520600969812935</v>
+        <v>-0.05568063883202949</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R7" t="n">
-        <v>-0</v>
+        <v>-0.01493916144773037</v>
       </c>
       <c r="S7" t="n">
         <v>-0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.01248528891567353</v>
       </c>
       <c r="U7" t="n">
-        <v>-1.979104143731252e-11</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.03562748741896815</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.06191697441406426</v>
+        <v>-0.006809428212689798</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -3927,22 +3927,22 @@
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>-3.10479619565803e-12</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>0.04031979640087657</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.003281443857506352</v>
+        <v>-0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.02861438965641897</v>
+        <v>-0</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.008629327667039428</v>
+        <v>0.04334076809365513</v>
       </c>
       <c r="AG7" t="n">
         <v>0</v>
@@ -3954,79 +3954,79 @@
         <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>-0</v>
+        <v>0.01501815667202584</v>
       </c>
       <c r="AK7" t="n">
         <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>0.02711052516175548</v>
       </c>
       <c r="AM7" t="n">
-        <v>-0.01933315802160323</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.05165465618952349</v>
+        <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.01058723041744517</v>
+        <v>-0.02769623715674093</v>
       </c>
       <c r="AP7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0</v>
+        <v>-0.01925861408430231</v>
       </c>
       <c r="AT7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>0.2026997789941081</v>
       </c>
       <c r="AV7" t="n">
-        <v>-0.03940903236444918</v>
+        <v>-0</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.08472511055930308</v>
+        <v>-0</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.05467704599674284</v>
+        <v>0.09437733139762081</v>
       </c>
       <c r="AY7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ7" t="n">
         <v>0</v>
       </c>
       <c r="BA7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB7" t="n">
-        <v>-0</v>
+        <v>0.004682364253547737</v>
       </c>
       <c r="BC7" t="n">
         <v>0</v>
       </c>
       <c r="BD7" t="n">
-        <v>0</v>
+        <v>-0.01163578271813984</v>
       </c>
       <c r="BE7" t="n">
-        <v>-0.003295699035664132</v>
+        <v>0</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.06949041332791858</v>
+        <v>0</v>
       </c>
       <c r="BG7" t="n">
-        <v>-0.01999948518534916</v>
+        <v>-0.06356120920459496</v>
       </c>
       <c r="BH7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI7" t="n">
         <v>-0</v>
@@ -4035,22 +4035,22 @@
         <v>0</v>
       </c>
       <c r="BK7" t="n">
-        <v>-0</v>
+        <v>-0.004935690430617552</v>
       </c>
       <c r="BL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM7" t="n">
-        <v>-0</v>
+        <v>0.03078173371707039</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.05947442715290093</v>
+        <v>-0</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.03439548842282749</v>
+        <v>0</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.06641655290119085</v>
+        <v>0.09630323672964902</v>
       </c>
       <c r="BQ7" t="n">
         <v>-0</v>
@@ -4062,49 +4062,49 @@
         <v>-0</v>
       </c>
       <c r="BT7" t="n">
-        <v>-0</v>
+        <v>0.03485303562920299</v>
       </c>
       <c r="BU7" t="n">
         <v>-0</v>
       </c>
       <c r="BV7" t="n">
-        <v>0</v>
+        <v>0.1026039799725474</v>
       </c>
       <c r="BW7" t="n">
-        <v>-0.0008225813310964092</v>
+        <v>0</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.07454572018885602</v>
+        <v>-0</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.06626531123122723</v>
+        <v>0.009183778993956015</v>
       </c>
       <c r="BZ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CA7" t="n">
         <v>0</v>
       </c>
       <c r="CB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC7" t="n">
-        <v>-0</v>
+        <v>0.003764119659134923</v>
       </c>
       <c r="CD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE7" t="n">
-        <v>0</v>
+        <v>-0.02557721366386845</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.01193240314783478</v>
+        <v>-0</v>
       </c>
       <c r="CG7" t="n">
-        <v>-0.03898478709766713</v>
+        <v>-0</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.01101303798668041</v>
+        <v>0.003463649696341436</v>
       </c>
       <c r="CI7" t="n">
         <v>0</v>
@@ -4113,25 +4113,25 @@
         <v>-0</v>
       </c>
       <c r="CK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL7" t="n">
-        <v>0</v>
+        <v>0.03057327059506915</v>
       </c>
       <c r="CM7" t="n">
         <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>0</v>
+        <v>-0.01184024319813866</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.00227882061201762</v>
+        <v>0</v>
       </c>
       <c r="CP7" t="n">
-        <v>-0.04192065440167523</v>
+        <v>-0</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.001784719962133675</v>
+        <v>-0.004656453108360922</v>
       </c>
       <c r="CR7" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>-0</v>
       </c>
       <c r="CU7" t="n">
-        <v>-0</v>
+        <v>-0.003705487882906883</v>
       </c>
       <c r="CV7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW7" t="n">
-        <v>-0</v>
+        <v>-0.01879044444232701</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.01461764168044771</v>
+        <v>0</v>
       </c>
       <c r="CY7" t="n">
-        <v>-0.02934526148948065</v>
+        <v>0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.008603212050326435</v>
+        <v>0.007844262613480675</v>
       </c>
       <c r="DA7" t="n">
         <v>-0</v>
@@ -4170,49 +4170,49 @@
         <v>0</v>
       </c>
       <c r="DD7" t="n">
-        <v>-0</v>
+        <v>0.03076291359934567</v>
       </c>
       <c r="DE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF7" t="n">
-        <v>0</v>
+        <v>-0.09050920660622627</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.0312606705429052</v>
+        <v>-0</v>
       </c>
       <c r="DH7" t="n">
-        <v>-0.0399832783341829</v>
+        <v>-0</v>
       </c>
       <c r="DI7" t="n">
-        <v>-0.002947128117899426</v>
+        <v>0.03053462441461266</v>
       </c>
       <c r="DJ7" t="n">
         <v>-0</v>
       </c>
       <c r="DK7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL7" t="n">
         <v>0</v>
       </c>
       <c r="DM7" t="n">
-        <v>0</v>
+        <v>-0.01621211984387072</v>
       </c>
       <c r="DN7" t="n">
         <v>-0</v>
       </c>
       <c r="DO7" t="n">
-        <v>0</v>
+        <v>0.0002884562231248386</v>
       </c>
       <c r="DP7" t="n">
-        <v>-0.02527010005059774</v>
+        <v>-0</v>
       </c>
       <c r="DQ7" t="n">
-        <v>-0.005008069424552016</v>
+        <v>-0</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.02816398258723135</v>
+        <v>0.0007644181411154572</v>
       </c>
       <c r="DS7" t="n">
         <v>-0</v>
@@ -4221,28 +4221,28 @@
         <v>0</v>
       </c>
       <c r="DU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV7" t="n">
-        <v>0</v>
+        <v>0.007391587594763137</v>
       </c>
       <c r="DW7" t="n">
         <v>0</v>
       </c>
       <c r="DX7" t="n">
-        <v>-0</v>
+        <v>-0.008823860926377419</v>
       </c>
       <c r="DY7" t="n">
-        <v>-0.03224340102164514</v>
+        <v>0</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0.0421432448284264</v>
+        <v>0</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.009970971568459209</v>
+        <v>-0.01851094211836615</v>
       </c>
       <c r="EB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC7" t="n">
         <v>-0</v>
@@ -4251,169 +4251,169 @@
         <v>-0</v>
       </c>
       <c r="EE7" t="n">
-        <v>0</v>
+        <v>-0.01101961505308869</v>
       </c>
       <c r="EF7" t="n">
         <v>0</v>
       </c>
       <c r="EG7" t="n">
-        <v>0</v>
+        <v>-0.003758687523829439</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.01045688106181427</v>
+        <v>0</v>
       </c>
       <c r="EI7" t="n">
-        <v>-0.0254016015716308</v>
+        <v>0</v>
       </c>
       <c r="EJ7" t="n">
-        <v>-0.007907286002197991</v>
+        <v>0.02739611836138908</v>
       </c>
       <c r="EK7" t="n">
         <v>0</v>
       </c>
       <c r="EL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM7" t="n">
         <v>0</v>
       </c>
       <c r="EN7" t="n">
-        <v>0</v>
+        <v>0.03185656607962808</v>
       </c>
       <c r="EO7" t="n">
         <v>0</v>
       </c>
       <c r="EP7" t="n">
-        <v>0</v>
+        <v>-0.0372259849718174</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.006886811646134495</v>
+        <v>-0</v>
       </c>
       <c r="ER7" t="n">
-        <v>-0.01485744349615213</v>
+        <v>-0</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.004001068687803121</v>
+        <v>0.001711156544643216</v>
       </c>
       <c r="ET7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU7" t="n">
         <v>-0</v>
       </c>
       <c r="EV7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EW7" t="n">
-        <v>-0</v>
+        <v>0.007273497457428265</v>
       </c>
       <c r="EX7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY7" t="n">
-        <v>0</v>
+        <v>-0.02917188462713969</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.008984947439160288</v>
+        <v>-0</v>
       </c>
       <c r="FA7" t="n">
-        <v>-0.0249135928582179</v>
+        <v>-0</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.01082762651009895</v>
+        <v>0.01014867156076045</v>
       </c>
       <c r="FC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD7" t="n">
         <v>-0</v>
       </c>
       <c r="FE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF7" t="n">
-        <v>0</v>
+        <v>0.01761262464037206</v>
       </c>
       <c r="FG7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH7" t="n">
-        <v>0</v>
+        <v>-0.03878417513242315</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.008626728451454941</v>
+        <v>-0</v>
       </c>
       <c r="FJ7" t="n">
-        <v>-0.007676591322223375</v>
+        <v>0</v>
       </c>
       <c r="FK7" t="n">
-        <v>-0.004644372304037361</v>
+        <v>-0.02525921247410412</v>
       </c>
       <c r="FL7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM7" t="n">
         <v>-0</v>
       </c>
       <c r="FN7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO7" t="n">
-        <v>0</v>
+        <v>0.01409274836495257</v>
       </c>
       <c r="FP7" t="n">
         <v>0</v>
       </c>
       <c r="FQ7" t="n">
-        <v>-0</v>
+        <v>-0.06818940756258277</v>
       </c>
       <c r="FR7" t="n">
-        <v>-0.001840850949618919</v>
+        <v>-0</v>
       </c>
       <c r="FS7" t="n">
-        <v>0.02758229820908845</v>
+        <v>0</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.02317370367562826</v>
+        <v>0.01281429333808115</v>
       </c>
       <c r="FU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV7" t="n">
         <v>-0</v>
       </c>
       <c r="FW7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX7" t="n">
-        <v>0</v>
+        <v>-0.0003373185861960757</v>
       </c>
       <c r="FY7" t="n">
         <v>-0</v>
       </c>
       <c r="FZ7" t="n">
-        <v>-0</v>
+        <v>-0.03090778858014484</v>
       </c>
       <c r="GA7" t="n">
-        <v>-0.01179668678190217</v>
+        <v>-0</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.01879210233234351</v>
+        <v>-0</v>
       </c>
       <c r="GC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF7" t="n">
         <v>0</v>
       </c>
       <c r="GG7" t="n">
-        <v>-0</v>
+        <v>0.03937850447986568</v>
       </c>
     </row>
     <row r="8">
@@ -4421,13 +4421,13 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>-0</v>
@@ -4448,13 +4448,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>-0</v>
@@ -4475,13 +4475,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>-0</v>
@@ -4502,13 +4502,13 @@
         <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
         <v>-0</v>
@@ -4529,13 +4529,13 @@
         <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM8" t="n">
         <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="n">
         <v>-0</v>
@@ -4556,13 +4556,13 @@
         <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV8" t="n">
         <v>0</v>
       </c>
       <c r="AW8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX8" t="n">
         <v>-0</v>
@@ -4583,13 +4583,13 @@
         <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE8" t="n">
         <v>0</v>
       </c>
       <c r="BF8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG8" t="n">
         <v>-0</v>
@@ -4610,13 +4610,13 @@
         <v>0</v>
       </c>
       <c r="BM8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN8" t="n">
         <v>0</v>
       </c>
       <c r="BO8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BP8" t="n">
         <v>-0</v>
@@ -4637,13 +4637,13 @@
         <v>0</v>
       </c>
       <c r="BV8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW8" t="n">
         <v>0</v>
       </c>
       <c r="BX8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY8" t="n">
         <v>-0</v>
@@ -4664,13 +4664,13 @@
         <v>0</v>
       </c>
       <c r="CE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF8" t="n">
         <v>0</v>
       </c>
       <c r="CG8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH8" t="n">
         <v>-0</v>
@@ -4691,13 +4691,13 @@
         <v>0</v>
       </c>
       <c r="CN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO8" t="n">
         <v>0</v>
       </c>
       <c r="CP8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ8" t="n">
         <v>-0</v>
@@ -4745,13 +4745,13 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG8" t="n">
         <v>0</v>
       </c>
       <c r="DH8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DI8" t="n">
         <v>-0</v>
@@ -4772,13 +4772,13 @@
         <v>0</v>
       </c>
       <c r="DO8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP8" t="n">
         <v>0</v>
       </c>
       <c r="DQ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR8" t="n">
         <v>-0</v>
@@ -4826,13 +4826,13 @@
         <v>0</v>
       </c>
       <c r="EG8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH8" t="n">
         <v>0</v>
       </c>
       <c r="EI8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ8" t="n">
         <v>-0</v>
@@ -4853,13 +4853,13 @@
         <v>0</v>
       </c>
       <c r="EP8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ8" t="n">
         <v>0</v>
       </c>
       <c r="ER8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES8" t="n">
         <v>-0</v>
@@ -4880,13 +4880,13 @@
         <v>0</v>
       </c>
       <c r="EY8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ8" t="n">
         <v>0</v>
       </c>
       <c r="FA8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB8" t="n">
         <v>-0</v>
@@ -4907,13 +4907,13 @@
         <v>0</v>
       </c>
       <c r="FH8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI8" t="n">
         <v>0</v>
       </c>
       <c r="FJ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FK8" t="n">
         <v>-0</v>
@@ -4987,46 +4987,46 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.2347711877638805</v>
       </c>
       <c r="C9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1034140794200825</v>
+        <v>-0.09168037802406806</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0426501895465736</v>
+        <v>-0.00513514788009012</v>
       </c>
       <c r="F9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.06463644633682503</v>
+        <v>-0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>0.1603569296116676</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.06061191777208509</v>
+        <v>-0.1045656559203108</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.01213610109300078</v>
+        <v>-0.06687903998471845</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -5035,61 +5035,61 @@
         <v>-0</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.09219159552670597</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.05732059070426937</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V9" t="n">
-        <v>-0.01442244144652305</v>
+        <v>0.002836548349299357</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.1012995352064979</v>
+        <v>0.01595365293934321</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0.04656800658605988</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
         <v>-0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0</v>
+        <v>0.114734495189674</v>
       </c>
       <c r="AD9" t="n">
         <v>-0</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.05598969518869714</v>
+        <v>-0.04796842299181603</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.05567114302871964</v>
+        <v>0.03032594948889759</v>
       </c>
       <c r="AG9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
         <v>-0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.001866234020987802</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
         <v>-0</v>
@@ -5098,43 +5098,43 @@
         <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>-0</v>
+        <v>0.01743970870817466</v>
       </c>
       <c r="AM9" t="n">
         <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.08334245087183087</v>
+        <v>-0.0414079789253427</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.08619917164891734</v>
+        <v>-0.08004478105204987</v>
       </c>
       <c r="AP9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ9" t="n">
         <v>-0</v>
       </c>
       <c r="AR9" t="n">
-        <v>-0.03504784225630561</v>
+        <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT9" t="n">
         <v>-0</v>
       </c>
       <c r="AU9" t="n">
-        <v>-0</v>
+        <v>0.4092636996106548</v>
       </c>
       <c r="AV9" t="n">
         <v>-0</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.1107756824853227</v>
+        <v>0.03090020720012882</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.07397292351359326</v>
+        <v>0.1849725994155881</v>
       </c>
       <c r="AY9" t="n">
         <v>-0</v>
@@ -5143,25 +5143,25 @@
         <v>0</v>
       </c>
       <c r="BA9" t="n">
-        <v>-0.1551228984257323</v>
+        <v>-0</v>
       </c>
       <c r="BB9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD9" t="n">
-        <v>0</v>
+        <v>0.01394345044998565</v>
       </c>
       <c r="BE9" t="n">
         <v>0</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.05427633872479703</v>
+        <v>-0.07686597406154171</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.004128725584702135</v>
+        <v>-0.1437434254762206</v>
       </c>
       <c r="BH9" t="n">
         <v>0</v>
@@ -5170,34 +5170,34 @@
         <v>-0</v>
       </c>
       <c r="BJ9" t="n">
-        <v>-0.01015886971376482</v>
+        <v>0</v>
       </c>
       <c r="BK9" t="n">
         <v>0</v>
       </c>
       <c r="BL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM9" t="n">
-        <v>0</v>
+        <v>0.1162529179921532</v>
       </c>
       <c r="BN9" t="n">
         <v>-0</v>
       </c>
       <c r="BO9" t="n">
-        <v>0.01938839926728364</v>
+        <v>0.01983233144442862</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.0004293671816990465</v>
+        <v>0.1340954036198648</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS9" t="n">
-        <v>0.02833703037013689</v>
+        <v>-0</v>
       </c>
       <c r="BT9" t="n">
         <v>-0</v>
@@ -5206,106 +5206,106 @@
         <v>-0</v>
       </c>
       <c r="BV9" t="n">
-        <v>-0</v>
+        <v>0.2113240750494355</v>
       </c>
       <c r="BW9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX9" t="n">
-        <v>0.1248240722835546</v>
+        <v>0.008086557734068989</v>
       </c>
       <c r="BY9" t="n">
-        <v>0.01121272675458274</v>
+        <v>0.05410663366390473</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA9" t="n">
         <v>0</v>
       </c>
       <c r="CB9" t="n">
-        <v>-0.1293268502433273</v>
+        <v>0</v>
       </c>
       <c r="CC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE9" t="n">
-        <v>-0</v>
+        <v>-0.0765620763165695</v>
       </c>
       <c r="CF9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG9" t="n">
-        <v>-0.04076753423399724</v>
+        <v>0.001228352712270427</v>
       </c>
       <c r="CH9" t="n">
-        <v>0.01583563081368062</v>
+        <v>-0.01602051048971085</v>
       </c>
       <c r="CI9" t="n">
         <v>0</v>
       </c>
       <c r="CJ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK9" t="n">
-        <v>0.02728975384825393</v>
+        <v>-0</v>
       </c>
       <c r="CL9" t="n">
         <v>-0</v>
       </c>
       <c r="CM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN9" t="n">
-        <v>-0</v>
+        <v>-0.03185158609625387</v>
       </c>
       <c r="CO9" t="n">
         <v>0</v>
       </c>
       <c r="CP9" t="n">
-        <v>-0.04530203332797332</v>
+        <v>-0.05435306913997542</v>
       </c>
       <c r="CQ9" t="n">
-        <v>0.0462925289240373</v>
+        <v>-0.02554177534159993</v>
       </c>
       <c r="CR9" t="n">
         <v>0</v>
       </c>
       <c r="CS9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT9" t="n">
-        <v>0.02362740033929598</v>
+        <v>-0</v>
       </c>
       <c r="CU9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW9" t="n">
-        <v>0</v>
+        <v>-0.05039405463098726</v>
       </c>
       <c r="CX9" t="n">
         <v>-0</v>
       </c>
       <c r="CY9" t="n">
-        <v>-0.04367637244626533</v>
+        <v>0.02032295625275827</v>
       </c>
       <c r="CZ9" t="n">
-        <v>0.02549666319384766</v>
+        <v>0.001596248089598107</v>
       </c>
       <c r="DA9" t="n">
         <v>-0</v>
       </c>
       <c r="DB9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC9" t="n">
-        <v>0.02581621592668895</v>
+        <v>0</v>
       </c>
       <c r="DD9" t="n">
         <v>0</v>
@@ -5314,43 +5314,43 @@
         <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>0</v>
+        <v>-0.01377169180684963</v>
       </c>
       <c r="DG9" t="n">
         <v>0</v>
       </c>
       <c r="DH9" t="n">
-        <v>-0.01518454870098104</v>
+        <v>0.01985773745373938</v>
       </c>
       <c r="DI9" t="n">
-        <v>-0.06716409922243043</v>
+        <v>-0.0005016436248589094</v>
       </c>
       <c r="DJ9" t="n">
         <v>0</v>
       </c>
       <c r="DK9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL9" t="n">
-        <v>-0.05655525415080035</v>
+        <v>0</v>
       </c>
       <c r="DM9" t="n">
         <v>0</v>
       </c>
       <c r="DN9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO9" t="n">
-        <v>0</v>
+        <v>-0.05647043859739722</v>
       </c>
       <c r="DP9" t="n">
         <v>0</v>
       </c>
       <c r="DQ9" t="n">
-        <v>0.03153039483217956</v>
+        <v>-0.02129307263081406</v>
       </c>
       <c r="DR9" t="n">
-        <v>0.005957611217862688</v>
+        <v>-0.01055942146746483</v>
       </c>
       <c r="DS9" t="n">
         <v>0</v>
@@ -5359,61 +5359,61 @@
         <v>0</v>
       </c>
       <c r="DU9" t="n">
-        <v>0.01422652816361442</v>
+        <v>-0</v>
       </c>
       <c r="DV9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW9" t="n">
         <v>0</v>
       </c>
       <c r="DX9" t="n">
-        <v>-0</v>
+        <v>0.02189763229919646</v>
       </c>
       <c r="DY9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ9" t="n">
-        <v>0.02461956193310761</v>
+        <v>-0.02457460405560874</v>
       </c>
       <c r="EA9" t="n">
-        <v>-0.006855782419848606</v>
+        <v>-0.02804150017780774</v>
       </c>
       <c r="EB9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC9" t="n">
         <v>0</v>
       </c>
       <c r="ED9" t="n">
-        <v>0.01989032977022811</v>
+        <v>-0</v>
       </c>
       <c r="EE9" t="n">
         <v>-0</v>
       </c>
       <c r="EF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG9" t="n">
-        <v>-0</v>
+        <v>-0.01707722243110385</v>
       </c>
       <c r="EH9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI9" t="n">
-        <v>-0.08170935155047053</v>
+        <v>0.0311315287139422</v>
       </c>
       <c r="EJ9" t="n">
-        <v>-0.03735945169405809</v>
+        <v>0.04498372791329724</v>
       </c>
       <c r="EK9" t="n">
         <v>0</v>
       </c>
       <c r="EL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM9" t="n">
-        <v>0.0682644441434674</v>
+        <v>-0</v>
       </c>
       <c r="EN9" t="n">
         <v>-0</v>
@@ -5422,106 +5422,106 @@
         <v>0</v>
       </c>
       <c r="EP9" t="n">
-        <v>0</v>
+        <v>-0.07551664496516727</v>
       </c>
       <c r="EQ9" t="n">
         <v>-0</v>
       </c>
       <c r="ER9" t="n">
-        <v>-0.04036579582724489</v>
+        <v>-0.04884407721368363</v>
       </c>
       <c r="ES9" t="n">
-        <v>0.05501864258857041</v>
+        <v>0.001892459371550675</v>
       </c>
       <c r="ET9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV9" t="n">
-        <v>0.06236762076774434</v>
+        <v>0</v>
       </c>
       <c r="EW9" t="n">
         <v>-0</v>
       </c>
       <c r="EX9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY9" t="n">
-        <v>-0</v>
+        <v>-0.06088456881336879</v>
       </c>
       <c r="EZ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA9" t="n">
-        <v>-0.03889703935670179</v>
+        <v>0.00998625337406331</v>
       </c>
       <c r="FB9" t="n">
-        <v>0.02136825790751721</v>
+        <v>0.01277227706873317</v>
       </c>
       <c r="FC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE9" t="n">
-        <v>0.03969556001665241</v>
+        <v>-0</v>
       </c>
       <c r="FF9" t="n">
         <v>-0</v>
       </c>
       <c r="FG9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH9" t="n">
-        <v>-0</v>
+        <v>0.03004583986912764</v>
       </c>
       <c r="FI9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ9" t="n">
-        <v>-0.03424443132467436</v>
+        <v>0.03156300974619614</v>
       </c>
       <c r="FK9" t="n">
-        <v>0.01493053035367589</v>
+        <v>-0.02670507463947194</v>
       </c>
       <c r="FL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM9" t="n">
         <v>-0</v>
       </c>
       <c r="FN9" t="n">
-        <v>0.003245313267084673</v>
+        <v>0</v>
       </c>
       <c r="FO9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP9" t="n">
         <v>0</v>
       </c>
       <c r="FQ9" t="n">
-        <v>-0</v>
+        <v>-0.03049443899187557</v>
       </c>
       <c r="FR9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS9" t="n">
-        <v>-0.0191134030215138</v>
+        <v>-0.03591822250184214</v>
       </c>
       <c r="FT9" t="n">
-        <v>0.1052899337111811</v>
+        <v>0.03534355658249257</v>
       </c>
       <c r="FU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV9" t="n">
         <v>-0</v>
       </c>
       <c r="FW9" t="n">
-        <v>0.00603724041887325</v>
+        <v>-0</v>
       </c>
       <c r="FX9" t="n">
         <v>0</v>
@@ -5530,25 +5530,25 @@
         <v>-0</v>
       </c>
       <c r="FZ9" t="n">
-        <v>-0</v>
+        <v>-0.02907744695211392</v>
       </c>
       <c r="GA9" t="n">
         <v>-0</v>
       </c>
       <c r="GB9" t="n">
-        <v>-0.01131976946511424</v>
+        <v>-0.06386801765803315</v>
       </c>
       <c r="GC9" t="n">
         <v>0</v>
       </c>
       <c r="GD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE9" t="n">
         <v>-0</v>
       </c>
       <c r="GF9" t="n">
-        <v>0.01168667067324546</v>
+        <v>0</v>
       </c>
       <c r="GG9" t="n">
         <v>-0</v>
@@ -5559,133 +5559,133 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.4159088701967574</v>
       </c>
       <c r="C10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2395064322346729</v>
+        <v>-0.130936785889397</v>
       </c>
       <c r="E10" t="n">
-        <v>0.08556799995514124</v>
+        <v>-0.08933763617060168</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.0001376319238385627</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.06480524585572511</v>
+        <v>-0.002875864575891533</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K10" t="n">
-        <v>-0</v>
+        <v>0.2869124641058518</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2274705234637016</v>
+        <v>-0.1167328628399965</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.02916798152624671</v>
+        <v>-0.1657942370053986</v>
       </c>
       <c r="O10" t="n">
-        <v>0.006184150959951206</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.09457277952395966</v>
+        <v>-0.0001951290808922268</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>-0</v>
+        <v>0.147306198695478</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.007396661840514096</v>
+        <v>-0.06167643553584475</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.1301977466553366</v>
+        <v>-0.03694212438312522</v>
       </c>
       <c r="X10" t="n">
-        <v>-7.508687886491724e-11</v>
+        <v>-0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.04978193206318754</v>
+        <v>-2.755241919773159e-11</v>
       </c>
       <c r="AA10" t="n">
         <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>0.06443980862538663</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.1081369430056971</v>
+        <v>0.03915501542050086</v>
       </c>
       <c r="AF10" t="n">
-        <v>-0.03700061883381927</v>
+        <v>-0.04261894656307411</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.02808369828311955</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
         <v>-0</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.01113069796822816</v>
+        <v>0.01190461132507686</v>
       </c>
       <c r="AJ10" t="n">
         <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>-0</v>
+        <v>0.05910453351442963</v>
       </c>
       <c r="AM10" t="n">
         <v>-0</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.0983476175769438</v>
+        <v>-0.06825540648333864</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.09548538686446804</v>
+        <v>-0.08916274485923786</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.05156487649765809</v>
+        <v>0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR10" t="n">
-        <v>-0.00551540850992482</v>
+        <v>0.01854112105993828</v>
       </c>
       <c r="AS10" t="n">
         <v>0</v>
@@ -5694,25 +5694,25 @@
         <v>-0</v>
       </c>
       <c r="AU10" t="n">
-        <v>-0</v>
+        <v>0.6533956820396917</v>
       </c>
       <c r="AV10" t="n">
         <v>-0</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.1282840160314898</v>
+        <v>-0.0282525903606475</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.1272873367890682</v>
+        <v>0.1676826975527894</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.06338653137520531</v>
+        <v>-0</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA10" t="n">
-        <v>-0.1671249444333266</v>
+        <v>0.08715984164838163</v>
       </c>
       <c r="BB10" t="n">
         <v>0</v>
@@ -5721,52 +5721,52 @@
         <v>0</v>
       </c>
       <c r="BD10" t="n">
-        <v>0</v>
+        <v>0.01489622646936439</v>
       </c>
       <c r="BE10" t="n">
         <v>0</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.1710318920790767</v>
+        <v>-0.04588249823093551</v>
       </c>
       <c r="BG10" t="n">
-        <v>-0.09976859310575974</v>
+        <v>-0.3467319083543766</v>
       </c>
       <c r="BH10" t="n">
-        <v>-2.317552761034263e-11</v>
+        <v>0</v>
       </c>
       <c r="BI10" t="n">
         <v>-0</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.04291100931392851</v>
+        <v>-1.18024310787182e-11</v>
       </c>
       <c r="BK10" t="n">
         <v>-0</v>
       </c>
       <c r="BL10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM10" t="n">
-        <v>0</v>
+        <v>0.1520990047291977</v>
       </c>
       <c r="BN10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.0104199826790038</v>
+        <v>0.1456512413175183</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.01053471709189536</v>
+        <v>0.07907082294136153</v>
       </c>
       <c r="BQ10" t="n">
-        <v>-0.07543054481059931</v>
+        <v>-0</v>
       </c>
       <c r="BR10" t="n">
         <v>-0</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.07725768010939599</v>
+        <v>0.0309160319663942</v>
       </c>
       <c r="BT10" t="n">
         <v>-0</v>
@@ -5775,25 +5775,25 @@
         <v>-0</v>
       </c>
       <c r="BV10" t="n">
-        <v>0</v>
+        <v>0.3385730081155459</v>
       </c>
       <c r="BW10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.160174338421845</v>
+        <v>-0.01511484634423603</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.03439739541333138</v>
+        <v>0.01046051598879153</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.007519118434499384</v>
+        <v>-0</v>
       </c>
       <c r="CA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB10" t="n">
-        <v>-0.1169238186531892</v>
+        <v>0.01335669589781508</v>
       </c>
       <c r="CC10" t="n">
         <v>0</v>
@@ -5802,133 +5802,133 @@
         <v>-0</v>
       </c>
       <c r="CE10" t="n">
-        <v>0</v>
+        <v>-0.1119083495091153</v>
       </c>
       <c r="CF10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG10" t="n">
-        <v>-0.07966452906323654</v>
+        <v>0.04802225689833774</v>
       </c>
       <c r="CH10" t="n">
-        <v>-0.01025545086143052</v>
+        <v>-0.01620214799194559</v>
       </c>
       <c r="CI10" t="n">
-        <v>-0.02832713793687728</v>
+        <v>-0</v>
       </c>
       <c r="CJ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK10" t="n">
-        <v>0.03965552325734369</v>
+        <v>-0.004846337273660263</v>
       </c>
       <c r="CL10" t="n">
         <v>0</v>
       </c>
       <c r="CM10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN10" t="n">
-        <v>0</v>
+        <v>-0.01564718720373452</v>
       </c>
       <c r="CO10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP10" t="n">
-        <v>-0.02523126642331446</v>
+        <v>-0.04820336901062271</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.1030155795134638</v>
+        <v>-0.009873626860831833</v>
       </c>
       <c r="CR10" t="n">
-        <v>-0.0164483125031211</v>
+        <v>0</v>
       </c>
       <c r="CS10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT10" t="n">
-        <v>0.0005120281194251383</v>
+        <v>0.03954443132768562</v>
       </c>
       <c r="CU10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW10" t="n">
-        <v>0</v>
+        <v>-0.07543020147416163</v>
       </c>
       <c r="CX10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY10" t="n">
-        <v>-0.06443178804308386</v>
+        <v>0.08123621387219854</v>
       </c>
       <c r="CZ10" t="n">
-        <v>-0.01036762030449127</v>
+        <v>-0.02472427405147938</v>
       </c>
       <c r="DA10" t="n">
-        <v>-0.002368071781814518</v>
+        <v>0</v>
       </c>
       <c r="DB10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC10" t="n">
-        <v>0.03235633714941004</v>
+        <v>-0.00469286005838159</v>
       </c>
       <c r="DD10" t="n">
         <v>-0</v>
       </c>
       <c r="DE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF10" t="n">
-        <v>0</v>
+        <v>-0.09223468668669454</v>
       </c>
       <c r="DG10" t="n">
         <v>0</v>
       </c>
       <c r="DH10" t="n">
-        <v>-0.06172967665830486</v>
+        <v>0.05768319998890661</v>
       </c>
       <c r="DI10" t="n">
-        <v>-0.04673670525434079</v>
+        <v>-0.001755148538675349</v>
       </c>
       <c r="DJ10" t="n">
-        <v>-0.004660767851225841</v>
+        <v>0</v>
       </c>
       <c r="DK10" t="n">
         <v>0</v>
       </c>
       <c r="DL10" t="n">
-        <v>-0.03161761998871995</v>
+        <v>0.01303338239717335</v>
       </c>
       <c r="DM10" t="n">
         <v>-0</v>
       </c>
       <c r="DN10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO10" t="n">
-        <v>0</v>
+        <v>-0.1036585408170459</v>
       </c>
       <c r="DP10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ10" t="n">
-        <v>0.06082942823662812</v>
+        <v>-0.01347661424921769</v>
       </c>
       <c r="DR10" t="n">
-        <v>-0.1151344044244264</v>
+        <v>0.01849148762823195</v>
       </c>
       <c r="DS10" t="n">
-        <v>-0.03694584245605047</v>
+        <v>-0</v>
       </c>
       <c r="DT10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU10" t="n">
-        <v>0.01584476641088377</v>
+        <v>-0.004270260548689606</v>
       </c>
       <c r="DV10" t="n">
         <v>0</v>
@@ -5937,52 +5937,52 @@
         <v>0</v>
       </c>
       <c r="DX10" t="n">
-        <v>-0</v>
+        <v>-0.0301023317697216</v>
       </c>
       <c r="DY10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0.03237294954120624</v>
+        <v>-0.02547900604712122</v>
       </c>
       <c r="EA10" t="n">
-        <v>-0.04755378007504065</v>
+        <v>-0.04957432994821064</v>
       </c>
       <c r="EB10" t="n">
-        <v>0.07464894851760376</v>
+        <v>0</v>
       </c>
       <c r="EC10" t="n">
         <v>-0</v>
       </c>
       <c r="ED10" t="n">
-        <v>0.02969945097005314</v>
+        <v>0.001806307950683692</v>
       </c>
       <c r="EE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG10" t="n">
-        <v>0</v>
+        <v>-0.05663592895669849</v>
       </c>
       <c r="EH10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI10" t="n">
-        <v>-0.1770842672264067</v>
+        <v>0.07346351078682456</v>
       </c>
       <c r="EJ10" t="n">
-        <v>-0.02313932023373923</v>
+        <v>0.02590548285285708</v>
       </c>
       <c r="EK10" t="n">
-        <v>-0.03690088187257688</v>
+        <v>-0</v>
       </c>
       <c r="EL10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM10" t="n">
-        <v>0.02675270804475217</v>
+        <v>0.04690184228045533</v>
       </c>
       <c r="EN10" t="n">
         <v>-0</v>
@@ -5991,79 +5991,79 @@
         <v>0</v>
       </c>
       <c r="EP10" t="n">
-        <v>-0</v>
+        <v>-0.0732413921741871</v>
       </c>
       <c r="EQ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER10" t="n">
-        <v>-0.03348403187861076</v>
+        <v>0.106872598318224</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.02452310956429029</v>
+        <v>-0.06871009382087795</v>
       </c>
       <c r="ET10" t="n">
-        <v>0.06137533242823118</v>
+        <v>-0</v>
       </c>
       <c r="EU10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV10" t="n">
-        <v>-0.03865610502919292</v>
+        <v>-0.04411205927005585</v>
       </c>
       <c r="EW10" t="n">
         <v>-0</v>
       </c>
       <c r="EX10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY10" t="n">
-        <v>-0</v>
+        <v>-0.0861863009028575</v>
       </c>
       <c r="EZ10" t="n">
         <v>0</v>
       </c>
       <c r="FA10" t="n">
-        <v>-0.06583422104562975</v>
+        <v>0.06897601415351656</v>
       </c>
       <c r="FB10" t="n">
-        <v>-0.001599754158327256</v>
+        <v>-0.008134753513358316</v>
       </c>
       <c r="FC10" t="n">
-        <v>-0.005447435847756443</v>
+        <v>-0</v>
       </c>
       <c r="FD10" t="n">
         <v>-0</v>
       </c>
       <c r="FE10" t="n">
-        <v>0.04584059953772834</v>
+        <v>-0.000819169301612803</v>
       </c>
       <c r="FF10" t="n">
         <v>0</v>
       </c>
       <c r="FG10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH10" t="n">
-        <v>0</v>
+        <v>0.01421274508875647</v>
       </c>
       <c r="FI10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ10" t="n">
-        <v>-0.07798047801455987</v>
+        <v>-0.08514611446590573</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.05636822650562286</v>
+        <v>-0.03311648974774567</v>
       </c>
       <c r="FL10" t="n">
-        <v>0.02481137308129593</v>
+        <v>0</v>
       </c>
       <c r="FM10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN10" t="n">
-        <v>-0.01429222997524083</v>
+        <v>0.01959213824716515</v>
       </c>
       <c r="FO10" t="n">
         <v>0</v>
@@ -6072,55 +6072,55 @@
         <v>0</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0</v>
+        <v>-0.07253155482535213</v>
       </c>
       <c r="FR10" t="n">
         <v>0</v>
       </c>
       <c r="FS10" t="n">
-        <v>-0.009858421801622169</v>
+        <v>-0.05047597951341685</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.02700568255775007</v>
+        <v>-0.1007835409687247</v>
       </c>
       <c r="FU10" t="n">
-        <v>-0.09272098900208967</v>
+        <v>0</v>
       </c>
       <c r="FV10" t="n">
         <v>-0</v>
       </c>
       <c r="FW10" t="n">
-        <v>0.07197217083981919</v>
+        <v>-0.03522578873962781</v>
       </c>
       <c r="FX10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY10" t="n">
         <v>-0</v>
       </c>
       <c r="FZ10" t="n">
-        <v>-0</v>
+        <v>-0.1089907047541396</v>
       </c>
       <c r="GA10" t="n">
         <v>-0</v>
       </c>
       <c r="GB10" t="n">
-        <v>0.0815066890109208</v>
+        <v>0.00515078774779295</v>
       </c>
       <c r="GC10" t="n">
         <v>-0</v>
       </c>
       <c r="GD10" t="n">
-        <v>-0.00203704621891562</v>
+        <v>-0</v>
       </c>
       <c r="GE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF10" t="n">
-        <v>-0.004541992402174263</v>
+        <v>0.009321453960728782</v>
       </c>
       <c r="GG10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="11">
@@ -6128,19 +6128,19 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.1279626372359389</v>
+        <v>0.215719451539212</v>
       </c>
       <c r="C11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1817110935596583</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.05047590181826414</v>
+        <v>-0.03278519360418562</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-0.232947526409763</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -6155,154 +6155,154 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.09004005990396596</v>
+        <v>0.1749197168361824</v>
       </c>
       <c r="L11" t="n">
         <v>-0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1558947690916626</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0.01346652157321991</v>
+        <v>-0.03564739388621432</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>-0.2263328425970082</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>-0</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.008433217763389941</v>
+        <v>0.0240452058050665</v>
       </c>
       <c r="U11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.04457113565948397</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.1341226697137359</v>
+        <v>-0.007341801420324156</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>0.008572631710052224</v>
       </c>
       <c r="Y11" t="n">
         <v>-0</v>
       </c>
       <c r="Z11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.0830434725630418</v>
+        <v>0.0422099807136507</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.09378509655787912</v>
+        <v>-0</v>
       </c>
       <c r="AF11" t="n">
-        <v>-0.04927447025099804</v>
+        <v>0.02344614649936618</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>0.0005871933268656822</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI11" t="n">
         <v>-0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
         <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>-0.02176778587449257</v>
+        <v>0.04140056231188484</v>
       </c>
       <c r="AM11" t="n">
         <v>-0</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.03156353480632038</v>
+        <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>-0.04429214839360292</v>
+        <v>-0.0002221925413109535</v>
       </c>
       <c r="AP11" t="n">
-        <v>-0</v>
+        <v>-0.05060481890749483</v>
       </c>
       <c r="AQ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR11" t="n">
         <v>-0</v>
       </c>
       <c r="AS11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU11" t="n">
-        <v>-0.1115022439280313</v>
+        <v>0.2344809617997174</v>
       </c>
       <c r="AV11" t="n">
         <v>-0</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.06796256064230101</v>
+        <v>0</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.04035566329253564</v>
+        <v>0.007988885487074502</v>
       </c>
       <c r="AY11" t="n">
-        <v>0</v>
+        <v>-0.1203603589505952</v>
       </c>
       <c r="AZ11" t="n">
         <v>0</v>
       </c>
       <c r="BA11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB11" t="n">
         <v>0</v>
       </c>
       <c r="BC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD11" t="n">
-        <v>-0.04022950529959757</v>
+        <v>0.08416469944123046</v>
       </c>
       <c r="BE11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.1375976545349132</v>
+        <v>0</v>
       </c>
       <c r="BG11" t="n">
-        <v>-0.03586229616934151</v>
+        <v>-0.09950226614711849</v>
       </c>
       <c r="BH11" t="n">
-        <v>-0</v>
+        <v>-0.127634887069511</v>
       </c>
       <c r="BI11" t="n">
         <v>-0</v>
@@ -6314,55 +6314,55 @@
         <v>-0</v>
       </c>
       <c r="BL11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.06602209661710161</v>
+        <v>0.1013933800643372</v>
       </c>
       <c r="BN11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.02294620495569413</v>
+        <v>-0</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.008765017942561586</v>
+        <v>0.0368065699349007</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0</v>
+        <v>0.008636641225519888</v>
       </c>
       <c r="BR11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS11" t="n">
         <v>0</v>
       </c>
       <c r="BT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV11" t="n">
-        <v>-0.01907050214253219</v>
+        <v>0.1039417561263516</v>
       </c>
       <c r="BW11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.111297641895675</v>
+        <v>0</v>
       </c>
       <c r="BY11" t="n">
-        <v>-0.07083328200592533</v>
+        <v>-0.01142888221524175</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0</v>
+        <v>-0.05180318268420474</v>
       </c>
       <c r="CA11" t="n">
         <v>0</v>
       </c>
       <c r="CB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC11" t="n">
         <v>0</v>
@@ -6371,19 +6371,19 @@
         <v>-0</v>
       </c>
       <c r="CE11" t="n">
-        <v>0.045754446706398</v>
+        <v>-0.05417016026242841</v>
       </c>
       <c r="CF11" t="n">
         <v>0</v>
       </c>
       <c r="CG11" t="n">
-        <v>-0.0547769064711754</v>
+        <v>-0</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.01661571947553937</v>
+        <v>-0.0001768646171900557</v>
       </c>
       <c r="CI11" t="n">
-        <v>0</v>
+        <v>0.0606851416814185</v>
       </c>
       <c r="CJ11" t="n">
         <v>-0</v>
@@ -6395,25 +6395,25 @@
         <v>0</v>
       </c>
       <c r="CM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.01784154544175735</v>
+        <v>-0.00567800677169022</v>
       </c>
       <c r="CO11" t="n">
         <v>0</v>
       </c>
       <c r="CP11" t="n">
-        <v>-0.02708113573955245</v>
+        <v>0</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.07596416442022869</v>
+        <v>0.01519807464828248</v>
       </c>
       <c r="CR11" t="n">
-        <v>0</v>
+        <v>-0.01591487166534684</v>
       </c>
       <c r="CS11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT11" t="n">
         <v>-0</v>
@@ -6422,22 +6422,22 @@
         <v>-0</v>
       </c>
       <c r="CV11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW11" t="n">
-        <v>0.0522421816545745</v>
+        <v>-0.03490108273947382</v>
       </c>
       <c r="CX11" t="n">
         <v>-0</v>
       </c>
       <c r="CY11" t="n">
-        <v>-0.03831976430931783</v>
+        <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.0126171018399078</v>
+        <v>0.002695550533745042</v>
       </c>
       <c r="DA11" t="n">
-        <v>0</v>
+        <v>0.05832052141445337</v>
       </c>
       <c r="DB11" t="n">
         <v>0</v>
@@ -6446,25 +6446,25 @@
         <v>-0</v>
       </c>
       <c r="DD11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE11" t="n">
         <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>0.0515035144451533</v>
+        <v>-0.04219388321566082</v>
       </c>
       <c r="DG11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH11" t="n">
-        <v>-0.04897109967371565</v>
+        <v>-0</v>
       </c>
       <c r="DI11" t="n">
-        <v>-0.05382161480076544</v>
+        <v>0.02829170966780375</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0</v>
+        <v>0.003117320372367507</v>
       </c>
       <c r="DK11" t="n">
         <v>0</v>
@@ -6473,109 +6473,109 @@
         <v>0</v>
       </c>
       <c r="DM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN11" t="n">
         <v>-0</v>
       </c>
       <c r="DO11" t="n">
-        <v>0.007306832456903543</v>
+        <v>-0.0186152478444328</v>
       </c>
       <c r="DP11" t="n">
         <v>0</v>
       </c>
       <c r="DQ11" t="n">
-        <v>-0.001586890862190647</v>
+        <v>-0</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.04420708753373136</v>
+        <v>0.02221908688990039</v>
       </c>
       <c r="DS11" t="n">
-        <v>0</v>
+        <v>-0.01983171794295544</v>
       </c>
       <c r="DT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV11" t="n">
         <v>0</v>
       </c>
       <c r="DW11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX11" t="n">
-        <v>0.02251566744161733</v>
+        <v>0.006019259935494855</v>
       </c>
       <c r="DY11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ11" t="n">
-        <v>0.05689879653384165</v>
+        <v>0</v>
       </c>
       <c r="EA11" t="n">
-        <v>-0.01973470106497504</v>
+        <v>-0.01890781485116119</v>
       </c>
       <c r="EB11" t="n">
-        <v>0</v>
+        <v>0.01164373744926778</v>
       </c>
       <c r="EC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED11" t="n">
         <v>-0</v>
       </c>
       <c r="EE11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF11" t="n">
         <v>0</v>
       </c>
       <c r="EG11" t="n">
-        <v>0.04139371914672663</v>
+        <v>-0.02191515112300602</v>
       </c>
       <c r="EH11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI11" t="n">
-        <v>-0.07274488432912973</v>
+        <v>0</v>
       </c>
       <c r="EJ11" t="n">
-        <v>-0.02434760613104694</v>
+        <v>0.00936567676063493</v>
       </c>
       <c r="EK11" t="n">
-        <v>-0</v>
+        <v>0.04713427375430514</v>
       </c>
       <c r="EL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO11" t="n">
         <v>0</v>
       </c>
       <c r="EP11" t="n">
-        <v>0.02759036736571637</v>
+        <v>-0.02713364856390415</v>
       </c>
       <c r="EQ11" t="n">
         <v>0</v>
       </c>
       <c r="ER11" t="n">
-        <v>0.02144948944097172</v>
+        <v>-0</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.04109698979034967</v>
+        <v>-0.001046095228236011</v>
       </c>
       <c r="ET11" t="n">
-        <v>-0</v>
+        <v>0.05280447401175334</v>
       </c>
       <c r="EU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV11" t="n">
         <v>0</v>
@@ -6587,73 +6587,73 @@
         <v>-0</v>
       </c>
       <c r="EY11" t="n">
-        <v>0.04125196649440727</v>
+        <v>-0.03634651677316217</v>
       </c>
       <c r="EZ11" t="n">
         <v>0</v>
       </c>
       <c r="FA11" t="n">
-        <v>-0.04097135834625632</v>
+        <v>-0</v>
       </c>
       <c r="FB11" t="n">
-        <v>0.02298036489984862</v>
+        <v>0.00326072387468134</v>
       </c>
       <c r="FC11" t="n">
-        <v>-0</v>
+        <v>0.06260054605396748</v>
       </c>
       <c r="FD11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE11" t="n">
         <v>0</v>
       </c>
       <c r="FF11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH11" t="n">
-        <v>0.04526347995981848</v>
+        <v>-0.0208335763096019</v>
       </c>
       <c r="FI11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ11" t="n">
-        <v>-0.05893665352786873</v>
+        <v>-0</v>
       </c>
       <c r="FK11" t="n">
-        <v>-0.001391221768669785</v>
+        <v>-0.01979240559254179</v>
       </c>
       <c r="FL11" t="n">
-        <v>0</v>
+        <v>0.03485938299615548</v>
       </c>
       <c r="FM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO11" t="n">
         <v>0</v>
       </c>
       <c r="FP11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0.02583811470612839</v>
+        <v>0.006699839518582927</v>
       </c>
       <c r="FR11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS11" t="n">
-        <v>0.08430645831583826</v>
+        <v>-0</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.074166945339585</v>
+        <v>-0.04875238633306139</v>
       </c>
       <c r="FU11" t="n">
-        <v>0</v>
+        <v>0.03451532493188116</v>
       </c>
       <c r="FV11" t="n">
         <v>-0</v>
@@ -6662,60 +6662,60 @@
         <v>-0</v>
       </c>
       <c r="FX11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0.03735082756373533</v>
+        <v>-0.03101028323582827</v>
       </c>
       <c r="GA11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB11" t="n">
-        <v>0.05359516794358896</v>
+        <v>-0</v>
       </c>
       <c r="GC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD11" t="n">
-        <v>-0</v>
+        <v>-0.03072281362173907</v>
       </c>
       <c r="GE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF11" t="n">
         <v>-0</v>
       </c>
       <c r="GG11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>-0</v>
+        <v>0.2538020249575009</v>
       </c>
       <c r="C12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3716758143370645</v>
+        <v>-0.1310118014825873</v>
       </c>
       <c r="E12" t="n">
-        <v>0.02157969460531114</v>
+        <v>-0.05460536824213515</v>
       </c>
       <c r="F12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.1750544099187089</v>
+        <v>-0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -6724,79 +6724,79 @@
         <v>-0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.1902871545163914</v>
       </c>
       <c r="L12" t="n">
         <v>-0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3402272420481247</v>
+        <v>-0.1189598091002437</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.08499465754246588</v>
+        <v>-0.09305197899117729</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.2291413173417081</v>
+        <v>-0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>0.09028807206287298</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V12" t="n">
-        <v>-0.02222389410362012</v>
+        <v>-0.006430445929234046</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.26738202615604</v>
+        <v>0.03462126403420714</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0.152303052023482</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0</v>
+        <v>0.1059555792225788</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.1393567401398726</v>
+        <v>-0.02429406830710975</v>
       </c>
       <c r="AF12" t="n">
-        <v>-0.01473297399868972</v>
+        <v>-0.02325203526529827</v>
       </c>
       <c r="AG12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH12" t="n">
         <v>-0</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.078871752444997</v>
+        <v>-0</v>
       </c>
       <c r="AJ12" t="n">
         <v>-0</v>
@@ -6805,25 +6805,25 @@
         <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>-0</v>
+        <v>0.04102829716457777</v>
       </c>
       <c r="AM12" t="n">
         <v>0</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.1302024458862024</v>
+        <v>-0.03875593386246366</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.08346577110103676</v>
+        <v>-0.06725463044527488</v>
       </c>
       <c r="AP12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR12" t="n">
-        <v>-0.036917920741072</v>
+        <v>0</v>
       </c>
       <c r="AS12" t="n">
         <v>0</v>
@@ -6832,70 +6832,70 @@
         <v>-0</v>
       </c>
       <c r="AU12" t="n">
-        <v>-0</v>
+        <v>0.3647202332740173</v>
       </c>
       <c r="AV12" t="n">
         <v>-0</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.2031022651360222</v>
+        <v>-0.02078550619339207</v>
       </c>
       <c r="AX12" t="n">
-        <v>-0.01334329984617753</v>
+        <v>0.08107145840133687</v>
       </c>
       <c r="AY12" t="n">
         <v>-0</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA12" t="n">
-        <v>-0.2519642574335715</v>
+        <v>-0</v>
       </c>
       <c r="BB12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC12" t="n">
         <v>0</v>
       </c>
       <c r="BD12" t="n">
-        <v>0</v>
+        <v>-0.00107738264806418</v>
       </c>
       <c r="BE12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.2642818448996021</v>
+        <v>-0.07290849153466036</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.01750084086141133</v>
+        <v>-0.1720891615951031</v>
       </c>
       <c r="BH12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI12" t="n">
         <v>-0</v>
       </c>
       <c r="BJ12" t="n">
-        <v>-0.0524974266219445</v>
+        <v>0</v>
       </c>
       <c r="BK12" t="n">
         <v>0</v>
       </c>
       <c r="BL12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM12" t="n">
-        <v>-0</v>
+        <v>0.08675453903482537</v>
       </c>
       <c r="BN12" t="n">
         <v>0</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.0301549823045114</v>
+        <v>0.05477532599636076</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.002519880959346712</v>
+        <v>0.09280986611157091</v>
       </c>
       <c r="BQ12" t="n">
         <v>-0</v>
@@ -6904,169 +6904,169 @@
         <v>-0</v>
       </c>
       <c r="BS12" t="n">
-        <v>0.09452135641552535</v>
+        <v>-0</v>
       </c>
       <c r="BT12" t="n">
         <v>-0</v>
       </c>
       <c r="BU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV12" t="n">
-        <v>-0</v>
+        <v>0.1811884235456059</v>
       </c>
       <c r="BW12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.2070517293205943</v>
+        <v>-0.01885819113629943</v>
       </c>
       <c r="BY12" t="n">
-        <v>-0.0281202085232342</v>
+        <v>0.05373996568153188</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA12" t="n">
         <v>0</v>
       </c>
       <c r="CB12" t="n">
-        <v>-0.2269232814221405</v>
+        <v>-0</v>
       </c>
       <c r="CC12" t="n">
         <v>0</v>
       </c>
       <c r="CD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE12" t="n">
-        <v>-0</v>
+        <v>-0.07023298395207932</v>
       </c>
       <c r="CF12" t="n">
         <v>0</v>
       </c>
       <c r="CG12" t="n">
-        <v>-0.1231257052095312</v>
+        <v>0.01503230077652326</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.05454140639093622</v>
+        <v>-0.005684050419114266</v>
       </c>
       <c r="CI12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK12" t="n">
-        <v>0.07279949911502379</v>
+        <v>0</v>
       </c>
       <c r="CL12" t="n">
         <v>-0</v>
       </c>
       <c r="CM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN12" t="n">
-        <v>-0</v>
+        <v>-0.02228974152325285</v>
       </c>
       <c r="CO12" t="n">
         <v>0</v>
       </c>
       <c r="CP12" t="n">
-        <v>-0.08795616940521588</v>
+        <v>-0.03268246110229597</v>
       </c>
       <c r="CQ12" t="n">
-        <v>0.1020837734300941</v>
+        <v>-0.02512228850232372</v>
       </c>
       <c r="CR12" t="n">
         <v>0</v>
       </c>
       <c r="CS12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT12" t="n">
-        <v>0.06262413534261785</v>
+        <v>-0</v>
       </c>
       <c r="CU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW12" t="n">
-        <v>0</v>
+        <v>-0.04404694947351464</v>
       </c>
       <c r="CX12" t="n">
         <v>-0</v>
       </c>
       <c r="CY12" t="n">
-        <v>-0.1075404080512519</v>
+        <v>0.03195664402089225</v>
       </c>
       <c r="CZ12" t="n">
-        <v>0.06143121642472026</v>
+        <v>-0.001494903828507413</v>
       </c>
       <c r="DA12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC12" t="n">
-        <v>0.06716174474027589</v>
+        <v>-0</v>
       </c>
       <c r="DD12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE12" t="n">
         <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>0</v>
+        <v>-0.03198479829102457</v>
       </c>
       <c r="DG12" t="n">
         <v>0</v>
       </c>
       <c r="DH12" t="n">
-        <v>-0.03965700427577172</v>
+        <v>0.02169875901243108</v>
       </c>
       <c r="DI12" t="n">
-        <v>-0.1372408529145015</v>
+        <v>0.01353463530648585</v>
       </c>
       <c r="DJ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL12" t="n">
-        <v>-0.0348022613101946</v>
+        <v>0</v>
       </c>
       <c r="DM12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO12" t="n">
-        <v>0</v>
+        <v>-0.04648212179717425</v>
       </c>
       <c r="DP12" t="n">
         <v>0</v>
       </c>
       <c r="DQ12" t="n">
-        <v>0.02480046730058968</v>
+        <v>-0.002322056063299487</v>
       </c>
       <c r="DR12" t="n">
-        <v>0.03616165001125526</v>
+        <v>-0.02806889831251985</v>
       </c>
       <c r="DS12" t="n">
         <v>0</v>
       </c>
       <c r="DT12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU12" t="n">
-        <v>-0.008510547447768899</v>
+        <v>0</v>
       </c>
       <c r="DV12" t="n">
         <v>0</v>
@@ -7075,151 +7075,151 @@
         <v>0</v>
       </c>
       <c r="DX12" t="n">
-        <v>-0</v>
+        <v>0.02209207729431895</v>
       </c>
       <c r="DY12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0.0745166791034685</v>
+        <v>0.014033044639058</v>
       </c>
       <c r="EA12" t="n">
-        <v>-0.05147457775812329</v>
+        <v>-0.008221239279644925</v>
       </c>
       <c r="EB12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED12" t="n">
-        <v>-0.05542834114482638</v>
+        <v>-0</v>
       </c>
       <c r="EE12" t="n">
         <v>-0</v>
       </c>
       <c r="EF12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG12" t="n">
-        <v>-0</v>
+        <v>-0.02459715416604476</v>
       </c>
       <c r="EH12" t="n">
         <v>0</v>
       </c>
       <c r="EI12" t="n">
-        <v>-0.2397254844367216</v>
+        <v>0.05572064737383472</v>
       </c>
       <c r="EJ12" t="n">
-        <v>-0.06685112613932474</v>
+        <v>0.0458402832747958</v>
       </c>
       <c r="EK12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM12" t="n">
-        <v>0.1137972058605754</v>
+        <v>-0</v>
       </c>
       <c r="EN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO12" t="n">
         <v>0</v>
       </c>
       <c r="EP12" t="n">
-        <v>-0</v>
+        <v>-0.06004204689822055</v>
       </c>
       <c r="EQ12" t="n">
         <v>0</v>
       </c>
       <c r="ER12" t="n">
-        <v>-0.05791605813781821</v>
+        <v>0.02740078091640382</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.05765483200775196</v>
+        <v>0.04644567201076226</v>
       </c>
       <c r="ET12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV12" t="n">
-        <v>-0.06945355795361105</v>
+        <v>0</v>
       </c>
       <c r="EW12" t="n">
         <v>-0</v>
       </c>
       <c r="EX12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY12" t="n">
-        <v>-0</v>
+        <v>-0.05292406538509472</v>
       </c>
       <c r="EZ12" t="n">
         <v>0</v>
       </c>
       <c r="FA12" t="n">
-        <v>-0.1045675427499141</v>
+        <v>0.03586868783208244</v>
       </c>
       <c r="FB12" t="n">
-        <v>0.05393972461813902</v>
+        <v>0.003125605284041271</v>
       </c>
       <c r="FC12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE12" t="n">
-        <v>0.08093063784199307</v>
+        <v>0</v>
       </c>
       <c r="FF12" t="n">
         <v>-0</v>
       </c>
       <c r="FG12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH12" t="n">
-        <v>0</v>
+        <v>0.01649332419271867</v>
       </c>
       <c r="FI12" t="n">
         <v>-0</v>
       </c>
       <c r="FJ12" t="n">
-        <v>-0.03490081464840908</v>
+        <v>0.04405445411284184</v>
       </c>
       <c r="FK12" t="n">
-        <v>0.07475713051956875</v>
+        <v>-0.0396127430347176</v>
       </c>
       <c r="FL12" t="n">
         <v>0</v>
       </c>
       <c r="FM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN12" t="n">
-        <v>0.03608939598247451</v>
+        <v>0</v>
       </c>
       <c r="FO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP12" t="n">
         <v>0</v>
       </c>
       <c r="FQ12" t="n">
-        <v>-0</v>
+        <v>-0.01784110664690405</v>
       </c>
       <c r="FR12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS12" t="n">
-        <v>-0.04231814677934358</v>
+        <v>0.001715777651729214</v>
       </c>
       <c r="FT12" t="n">
-        <v>0.1049537423677464</v>
+        <v>0.01800732564672529</v>
       </c>
       <c r="FU12" t="n">
         <v>0</v>
@@ -7228,7 +7228,7 @@
         <v>-0</v>
       </c>
       <c r="FW12" t="n">
-        <v>0.0675396706539462</v>
+        <v>0</v>
       </c>
       <c r="FX12" t="n">
         <v>0</v>
@@ -7237,25 +7237,25 @@
         <v>-0</v>
       </c>
       <c r="FZ12" t="n">
-        <v>-0</v>
+        <v>-0.008222356322095786</v>
       </c>
       <c r="GA12" t="n">
         <v>-0</v>
       </c>
       <c r="GB12" t="n">
-        <v>0.04417131183060704</v>
+        <v>-0.03724862097811327</v>
       </c>
       <c r="GC12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE12" t="n">
         <v>-0</v>
       </c>
       <c r="GF12" t="n">
-        <v>0.01718990282571596</v>
+        <v>0</v>
       </c>
       <c r="GG12" t="n">
         <v>-0</v>
@@ -7263,25 +7263,25 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>0.3080371604029795</v>
+        <v>-0.3851089804901887</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1311293501076232</v>
+        <v>-0</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.01334071378951884</v>
+        <v>0.1293531061434318</v>
       </c>
       <c r="F13" t="n">
-        <v>-0</v>
+        <v>0.7563917508325028</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -7293,79 +7293,79 @@
         <v>-0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2820535313743588</v>
+        <v>-0.280500440656009</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.1000640225091989</v>
+        <v>-0</v>
       </c>
       <c r="N13" t="n">
-        <v>0.00491641273105832</v>
+        <v>-0.0001054960593275816</v>
       </c>
       <c r="O13" t="n">
-        <v>-0</v>
+        <v>0.6875168256593649</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0.02480100283668656</v>
+        <v>-0.0250362658015933</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V13" t="n">
-        <v>0.02371401514610303</v>
+        <v>-0</v>
       </c>
       <c r="W13" t="n">
-        <v>0.1677939087851632</v>
+        <v>0.2057429795918668</v>
       </c>
       <c r="X13" t="n">
-        <v>-0</v>
+        <v>0.1105989167046282</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA13" t="n">
         <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.1137781116292997</v>
+        <v>-0.03107713249268931</v>
       </c>
       <c r="AD13" t="n">
         <v>-0</v>
       </c>
       <c r="AE13" t="n">
-        <v>-0.07449173285652425</v>
+        <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.02537332564308277</v>
+        <v>-0.04368089188243945</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>0.07868279802912678</v>
       </c>
       <c r="AH13" t="n">
         <v>-0</v>
       </c>
       <c r="AI13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ13" t="n">
         <v>0</v>
@@ -7374,52 +7374,52 @@
         <v>-0</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.05657877683668843</v>
+        <v>-0.05242257909122145</v>
       </c>
       <c r="AM13" t="n">
         <v>0</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.03107693359945986</v>
+        <v>-0</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.03271994133390604</v>
+        <v>-0.04947480699513093</v>
       </c>
       <c r="AP13" t="n">
-        <v>0</v>
+        <v>0.1394112506320013</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.2829144799468105</v>
+        <v>-0.3957172105935142</v>
       </c>
       <c r="AV13" t="n">
         <v>0</v>
       </c>
       <c r="AW13" t="n">
-        <v>-0.01614691607627435</v>
+        <v>-0</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.01636003967540346</v>
+        <v>0.2441371776905863</v>
       </c>
       <c r="AY13" t="n">
-        <v>-0</v>
+        <v>0.6437097496073316</v>
       </c>
       <c r="AZ13" t="n">
         <v>-0</v>
       </c>
       <c r="BA13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB13" t="n">
         <v>-0</v>
@@ -7428,19 +7428,19 @@
         <v>0</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.07927105291548976</v>
+        <v>-0.215997140996857</v>
       </c>
       <c r="BE13" t="n">
         <v>-0</v>
       </c>
       <c r="BF13" t="n">
-        <v>-0.08589242426382721</v>
+        <v>-0</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.02706393035793722</v>
+        <v>0.04049127736631849</v>
       </c>
       <c r="BH13" t="n">
-        <v>-0</v>
+        <v>0.2272600390375337</v>
       </c>
       <c r="BI13" t="n">
         <v>0</v>
@@ -7455,22 +7455,22 @@
         <v>0</v>
       </c>
       <c r="BM13" t="n">
-        <v>-0.04527839614422854</v>
+        <v>-0.2050995660849115</v>
       </c>
       <c r="BN13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO13" t="n">
-        <v>-0.04385043481077792</v>
+        <v>-0</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.03854405944531717</v>
+        <v>-0.1096346002437886</v>
       </c>
       <c r="BQ13" t="n">
-        <v>-0</v>
+        <v>0.03091505980378849</v>
       </c>
       <c r="BR13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS13" t="n">
         <v>-0</v>
@@ -7479,22 +7479,22 @@
         <v>-0</v>
       </c>
       <c r="BU13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV13" t="n">
-        <v>0.08247850614013424</v>
+        <v>-0.2367081709720373</v>
       </c>
       <c r="BW13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BX13" t="n">
-        <v>-0.0644803331025972</v>
+        <v>-0</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.09001461368297708</v>
+        <v>0.1737001860276948</v>
       </c>
       <c r="BZ13" t="n">
-        <v>-0</v>
+        <v>0.35235425695687</v>
       </c>
       <c r="CA13" t="n">
         <v>-0</v>
@@ -7509,22 +7509,22 @@
         <v>0</v>
       </c>
       <c r="CE13" t="n">
-        <v>-0.1067460544319219</v>
+        <v>0.09253064527906193</v>
       </c>
       <c r="CF13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.03221235545528413</v>
+        <v>0</v>
       </c>
       <c r="CH13" t="n">
-        <v>-0.01648362721570169</v>
+        <v>-0.01512702379293618</v>
       </c>
       <c r="CI13" t="n">
-        <v>-0</v>
+        <v>-0.1629477407782392</v>
       </c>
       <c r="CJ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK13" t="n">
         <v>-0</v>
@@ -7536,73 +7536,73 @@
         <v>-0</v>
       </c>
       <c r="CN13" t="n">
-        <v>-0.02712487865257688</v>
+        <v>0.01873725335902082</v>
       </c>
       <c r="CO13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP13" t="n">
-        <v>0.004245237961589145</v>
+        <v>-0</v>
       </c>
       <c r="CQ13" t="n">
-        <v>-0.07549587654406242</v>
+        <v>-0.09731071522043709</v>
       </c>
       <c r="CR13" t="n">
-        <v>0</v>
+        <v>0.004461439392047593</v>
       </c>
       <c r="CS13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT13" t="n">
         <v>0</v>
       </c>
       <c r="CU13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW13" t="n">
-        <v>-0.09757546922341694</v>
+        <v>0.06483400306102759</v>
       </c>
       <c r="CX13" t="n">
         <v>0</v>
       </c>
       <c r="CY13" t="n">
-        <v>0.03916860819794032</v>
+        <v>-0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>-0.0290136828857881</v>
+        <v>-0.02875878388097874</v>
       </c>
       <c r="DA13" t="n">
-        <v>0</v>
+        <v>-0.1556894007097566</v>
       </c>
       <c r="DB13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC13" t="n">
         <v>0</v>
       </c>
       <c r="DD13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE13" t="n">
         <v>-0</v>
       </c>
       <c r="DF13" t="n">
-        <v>-0.09120429697356094</v>
+        <v>0.03941487075752195</v>
       </c>
       <c r="DG13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH13" t="n">
-        <v>0.01714491491009061</v>
+        <v>0</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.007146053557191561</v>
+        <v>-0.1949444450580975</v>
       </c>
       <c r="DJ13" t="n">
-        <v>-0</v>
+        <v>-0.03149395687885471</v>
       </c>
       <c r="DK13" t="n">
         <v>-0</v>
@@ -7614,49 +7614,49 @@
         <v>-0</v>
       </c>
       <c r="DN13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO13" t="n">
-        <v>-0.04762257591110108</v>
+        <v>0.006515963872604148</v>
       </c>
       <c r="DP13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ13" t="n">
-        <v>-0.00248491558919187</v>
+        <v>0</v>
       </c>
       <c r="DR13" t="n">
-        <v>-0.0255979781919931</v>
+        <v>-0.02935835950776869</v>
       </c>
       <c r="DS13" t="n">
-        <v>0</v>
+        <v>0.002458739052799416</v>
       </c>
       <c r="DT13" t="n">
         <v>-0</v>
       </c>
       <c r="DU13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV13" t="n">
         <v>0</v>
       </c>
       <c r="DW13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX13" t="n">
-        <v>-0.06920603216690627</v>
+        <v>-0.02254386698593879</v>
       </c>
       <c r="DY13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DZ13" t="n">
-        <v>-0.01451856279243973</v>
+        <v>-0</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.04165163616107719</v>
+        <v>0.01936113964426218</v>
       </c>
       <c r="EB13" t="n">
-        <v>-0</v>
+        <v>-0.1065697140928529</v>
       </c>
       <c r="EC13" t="n">
         <v>-0</v>
@@ -7668,25 +7668,25 @@
         <v>-0</v>
       </c>
       <c r="EF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG13" t="n">
-        <v>-0.07230300118391515</v>
+        <v>0.06209405378470684</v>
       </c>
       <c r="EH13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI13" t="n">
-        <v>0.06224407672410085</v>
+        <v>-0</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.03436663831839244</v>
+        <v>-0.08855701177938601</v>
       </c>
       <c r="EK13" t="n">
-        <v>-0</v>
+        <v>-0.1403991799821892</v>
       </c>
       <c r="EL13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM13" t="n">
         <v>-0</v>
@@ -7695,25 +7695,25 @@
         <v>0</v>
       </c>
       <c r="EO13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EP13" t="n">
-        <v>-0.03012140448877338</v>
+        <v>0.0242446928611809</v>
       </c>
       <c r="EQ13" t="n">
         <v>-0</v>
       </c>
       <c r="ER13" t="n">
-        <v>-0.03328060283150104</v>
+        <v>-0</v>
       </c>
       <c r="ES13" t="n">
-        <v>-0.04245120108355938</v>
+        <v>-0.005873515475465813</v>
       </c>
       <c r="ET13" t="n">
-        <v>0</v>
+        <v>-0.1557158549122865</v>
       </c>
       <c r="EU13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV13" t="n">
         <v>-0</v>
@@ -7722,25 +7722,25 @@
         <v>0</v>
       </c>
       <c r="EX13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY13" t="n">
-        <v>-0.09065647977731935</v>
+        <v>0.05706330133827851</v>
       </c>
       <c r="EZ13" t="n">
         <v>-0</v>
       </c>
       <c r="FA13" t="n">
-        <v>0.02971205795245683</v>
+        <v>0</v>
       </c>
       <c r="FB13" t="n">
-        <v>-0.0255840951588379</v>
+        <v>-0.07168312330156784</v>
       </c>
       <c r="FC13" t="n">
-        <v>-0</v>
+        <v>-0.1542250999838171</v>
       </c>
       <c r="FD13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE13" t="n">
         <v>-0</v>
@@ -7749,22 +7749,22 @@
         <v>0</v>
       </c>
       <c r="FG13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH13" t="n">
-        <v>0.04615909683254944</v>
+        <v>0.06176186833650924</v>
       </c>
       <c r="FI13" t="n">
         <v>-0</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0.08216456246772083</v>
+        <v>0</v>
       </c>
       <c r="FK13" t="n">
-        <v>-0.01209535641147414</v>
+        <v>-0.0243564643480885</v>
       </c>
       <c r="FL13" t="n">
-        <v>-0</v>
+        <v>0.02643157790158806</v>
       </c>
       <c r="FM13" t="n">
         <v>0</v>
@@ -7776,55 +7776,55 @@
         <v>-0</v>
       </c>
       <c r="FP13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0.009838046263269271</v>
+        <v>-0.01109861297884082</v>
       </c>
       <c r="FR13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS13" t="n">
-        <v>-0.01931987879444209</v>
+        <v>0</v>
       </c>
       <c r="FT13" t="n">
-        <v>-0.05422592541174436</v>
+        <v>-0.008441116633379151</v>
       </c>
       <c r="FU13" t="n">
-        <v>-0</v>
+        <v>0.0501914297554087</v>
       </c>
       <c r="FV13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX13" t="n">
         <v>-0</v>
       </c>
       <c r="FY13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FZ13" t="n">
-        <v>-0.0953558799901288</v>
+        <v>0.02964564389363531</v>
       </c>
       <c r="GA13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GB13" t="n">
-        <v>-0.02688868145291478</v>
+        <v>0</v>
       </c>
       <c r="GC13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD13" t="n">
-        <v>0</v>
+        <v>0.02838556378548363</v>
       </c>
       <c r="GE13" t="n">
         <v>0</v>
       </c>
       <c r="GF13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG13" t="n">
         <v>-0</v>
@@ -7832,22 +7832,22 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.2432074124105812</v>
+        <v>0.1718189728779962</v>
       </c>
       <c r="B14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>-0</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1754579969461711</v>
+        <v>-0.1119981729098626</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1638157601770224</v>
+        <v>0.1085928568610091</v>
       </c>
       <c r="F14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -7859,49 +7859,49 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2192928657830241</v>
+        <v>0.1622655178038572</v>
       </c>
       <c r="K14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.1699411662513638</v>
+        <v>-0.03858679198062701</v>
       </c>
       <c r="N14" t="n">
-        <v>0.1021210986939699</v>
+        <v>0.05102244742999536</v>
       </c>
       <c r="O14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0.01716042266104557</v>
+        <v>0.03645129677684913</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V14" t="n">
-        <v>-0.1260717158100199</v>
+        <v>0.05975966303264901</v>
       </c>
       <c r="W14" t="n">
-        <v>0.02440004294076827</v>
+        <v>0.04164408929765993</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y14" t="n">
         <v>-0</v>
@@ -7910,22 +7910,22 @@
         <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.02190719166413769</v>
+        <v>-0.02148401684059368</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>-0.01061439272870911</v>
+        <v>-0.01337116980043242</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.05071964395798693</v>
+        <v>0.02397573194503859</v>
       </c>
       <c r="AG14" t="n">
         <v>0</v>
@@ -7940,19 +7940,19 @@
         <v>-0</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.09330322942813529</v>
+        <v>-0.01167717167676426</v>
       </c>
       <c r="AL14" t="n">
         <v>0</v>
       </c>
       <c r="AM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN14" t="n">
-        <v>-0.09158923600263899</v>
+        <v>-0.02216538449117626</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.02000112109872097</v>
+        <v>-0.06139862228301438</v>
       </c>
       <c r="AP14" t="n">
         <v>0</v>
@@ -7964,52 +7964,52 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.1306909114598236</v>
+        <v>0.1136665514123651</v>
       </c>
       <c r="AU14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW14" t="n">
-        <v>-0.08955441507733473</v>
+        <v>-0.07444079825058575</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.1103502032662981</v>
+        <v>0.1597481966540818</v>
       </c>
       <c r="AY14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB14" t="n">
         <v>-0</v>
       </c>
       <c r="BC14" t="n">
-        <v>0.08738581575127426</v>
+        <v>0.1109082855224972</v>
       </c>
       <c r="BD14" t="n">
         <v>0</v>
       </c>
       <c r="BE14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BF14" t="n">
-        <v>-0.0988716719593345</v>
+        <v>0.0001911530304130537</v>
       </c>
       <c r="BG14" t="n">
-        <v>0.09928452734193398</v>
+        <v>0.06999080378094881</v>
       </c>
       <c r="BH14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI14" t="n">
         <v>0</v>
@@ -8018,82 +8018,82 @@
         <v>0</v>
       </c>
       <c r="BK14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL14" t="n">
-        <v>-0.02299952246277062</v>
+        <v>0.05241434047031007</v>
       </c>
       <c r="BM14" t="n">
         <v>0</v>
       </c>
       <c r="BN14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO14" t="n">
-        <v>-0.0252652131976652</v>
+        <v>0.01313696484277989</v>
       </c>
       <c r="BP14" t="n">
-        <v>0.01746063984485034</v>
+        <v>0.10505679081605</v>
       </c>
       <c r="BQ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR14" t="n">
         <v>0</v>
       </c>
       <c r="BS14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT14" t="n">
         <v>-0</v>
       </c>
       <c r="BU14" t="n">
-        <v>0.1660488697045822</v>
+        <v>0.06467075305022432</v>
       </c>
       <c r="BV14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW14" t="n">
         <v>-0</v>
       </c>
       <c r="BX14" t="n">
-        <v>-0.09692167319885207</v>
+        <v>-0.01560712461637712</v>
       </c>
       <c r="BY14" t="n">
-        <v>0.0841108049539853</v>
+        <v>0.08122569375042819</v>
       </c>
       <c r="BZ14" t="n">
         <v>0</v>
       </c>
       <c r="CA14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC14" t="n">
         <v>-0</v>
       </c>
       <c r="CD14" t="n">
-        <v>-0.06680679617227453</v>
+        <v>-0.03167472754986586</v>
       </c>
       <c r="CE14" t="n">
         <v>0</v>
       </c>
       <c r="CF14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG14" t="n">
-        <v>0.03207008213252879</v>
+        <v>-0.01264060167983138</v>
       </c>
       <c r="CH14" t="n">
-        <v>-0.05622120556352711</v>
+        <v>-0.02567930385950694</v>
       </c>
       <c r="CI14" t="n">
         <v>0</v>
       </c>
       <c r="CJ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK14" t="n">
         <v>0</v>
@@ -8102,52 +8102,52 @@
         <v>-0</v>
       </c>
       <c r="CM14" t="n">
-        <v>-0.02840231199119309</v>
+        <v>-0.02239430663506179</v>
       </c>
       <c r="CN14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CO14" t="n">
         <v>-0</v>
       </c>
       <c r="CP14" t="n">
-        <v>0.000933133542504641</v>
+        <v>-0.06568911298480125</v>
       </c>
       <c r="CQ14" t="n">
-        <v>-0.07429031409652248</v>
+        <v>-0.07043356334040066</v>
       </c>
       <c r="CR14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT14" t="n">
         <v>-0</v>
       </c>
       <c r="CU14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV14" t="n">
-        <v>-0.05505322236681914</v>
+        <v>-0.02175154064005948</v>
       </c>
       <c r="CW14" t="n">
         <v>-0</v>
       </c>
       <c r="CX14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY14" t="n">
-        <v>0.01555496856887386</v>
+        <v>0.0009885559782112708</v>
       </c>
       <c r="CZ14" t="n">
-        <v>-0.06969207502373946</v>
+        <v>-0.01470668757315542</v>
       </c>
       <c r="DA14" t="n">
         <v>-0</v>
       </c>
       <c r="DB14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC14" t="n">
         <v>-0</v>
@@ -8156,19 +8156,19 @@
         <v>0</v>
       </c>
       <c r="DE14" t="n">
-        <v>-0.002120311190941553</v>
+        <v>-0.01798624950906793</v>
       </c>
       <c r="DF14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH14" t="n">
-        <v>-0.008143899471837355</v>
+        <v>0.0750946527953705</v>
       </c>
       <c r="DI14" t="n">
-        <v>0.05178723119814063</v>
+        <v>-0.02641118039748334</v>
       </c>
       <c r="DJ14" t="n">
         <v>0</v>
@@ -8177,58 +8177,58 @@
         <v>-0</v>
       </c>
       <c r="DL14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN14" t="n">
-        <v>0.01395538648485119</v>
+        <v>-0.0234958137637556</v>
       </c>
       <c r="DO14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ14" t="n">
-        <v>-0.008135383133958301</v>
+        <v>0.03681225530222768</v>
       </c>
       <c r="DR14" t="n">
-        <v>0.02776826435186981</v>
+        <v>-0.06655966960781814</v>
       </c>
       <c r="DS14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT14" t="n">
         <v>0</v>
       </c>
       <c r="DU14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW14" t="n">
-        <v>0.01788405766982364</v>
+        <v>-0.03996376736383249</v>
       </c>
       <c r="DX14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY14" t="n">
         <v>0</v>
       </c>
       <c r="DZ14" t="n">
-        <v>-0.001711877768540507</v>
+        <v>-0.02365154207226329</v>
       </c>
       <c r="EA14" t="n">
-        <v>-0.02368770655872555</v>
+        <v>-0.02216878564396906</v>
       </c>
       <c r="EB14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED14" t="n">
         <v>-0</v>
@@ -8237,25 +8237,25 @@
         <v>0</v>
       </c>
       <c r="EF14" t="n">
-        <v>-0.1405603676809375</v>
+        <v>-0.02373117537508749</v>
       </c>
       <c r="EG14" t="n">
         <v>0</v>
       </c>
       <c r="EH14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI14" t="n">
-        <v>0.02615218433683771</v>
+        <v>0.01487067321483362</v>
       </c>
       <c r="EJ14" t="n">
-        <v>-0.05667668288289722</v>
+        <v>-0.009434749953873977</v>
       </c>
       <c r="EK14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM14" t="n">
         <v>0</v>
@@ -8264,7 +8264,7 @@
         <v>-0</v>
       </c>
       <c r="EO14" t="n">
-        <v>-0.02176100067948551</v>
+        <v>-0.009614901561347231</v>
       </c>
       <c r="EP14" t="n">
         <v>0</v>
@@ -8273,16 +8273,16 @@
         <v>-0</v>
       </c>
       <c r="ER14" t="n">
-        <v>-0.03773698458358255</v>
+        <v>0.0199044463827133</v>
       </c>
       <c r="ES14" t="n">
-        <v>-0.04436781072149583</v>
+        <v>0.006426188200675419</v>
       </c>
       <c r="ET14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV14" t="n">
         <v>0</v>
@@ -8291,46 +8291,46 @@
         <v>-0</v>
       </c>
       <c r="EX14" t="n">
-        <v>-0.06284440857453458</v>
+        <v>-0.02267507688106702</v>
       </c>
       <c r="EY14" t="n">
         <v>0</v>
       </c>
       <c r="EZ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA14" t="n">
-        <v>0.02199357970144189</v>
+        <v>-0.008291494852606208</v>
       </c>
       <c r="FB14" t="n">
-        <v>-0.06632124123533094</v>
+        <v>-0.02507287181457483</v>
       </c>
       <c r="FC14" t="n">
         <v>0</v>
       </c>
       <c r="FD14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE14" t="n">
         <v>0</v>
       </c>
       <c r="FF14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG14" t="n">
-        <v>0.06947124362608621</v>
+        <v>-0.01577414788270292</v>
       </c>
       <c r="FH14" t="n">
         <v>0</v>
       </c>
       <c r="FI14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ14" t="n">
-        <v>0.07677933444696539</v>
+        <v>0.02393219954718961</v>
       </c>
       <c r="FK14" t="n">
-        <v>0.07667519359431946</v>
+        <v>-0.1173181824528978</v>
       </c>
       <c r="FL14" t="n">
         <v>0</v>
@@ -8339,40 +8339,40 @@
         <v>-0</v>
       </c>
       <c r="FN14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO14" t="n">
         <v>-0</v>
       </c>
       <c r="FP14" t="n">
-        <v>-0.02869762974200186</v>
+        <v>0.006845432113405612</v>
       </c>
       <c r="FQ14" t="n">
         <v>0</v>
       </c>
       <c r="FR14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS14" t="n">
-        <v>0.06887530745614902</v>
+        <v>0.004880586868035616</v>
       </c>
       <c r="FT14" t="n">
-        <v>-0.003559012347191522</v>
+        <v>0.0499783088954413</v>
       </c>
       <c r="FU14" t="n">
         <v>-0</v>
       </c>
       <c r="FV14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW14" t="n">
         <v>0</v>
       </c>
       <c r="FX14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FY14" t="n">
-        <v>0.0694610528862159</v>
+        <v>0.02229574876643774</v>
       </c>
       <c r="FZ14" t="n">
         <v>0</v>
@@ -8381,30 +8381,30 @@
         <v>-0</v>
       </c>
       <c r="GB14" t="n">
-        <v>-0.008466748044984419</v>
+        <v>-0.019358411645213</v>
       </c>
       <c r="GC14" t="n">
         <v>0</v>
       </c>
       <c r="GD14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GE14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF14" t="n">
         <v>0</v>
       </c>
       <c r="GG14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -8428,10 +8428,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -8455,10 +8455,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -8482,10 +8482,10 @@
         <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -8509,10 +8509,10 @@
         <v>0</v>
       </c>
       <c r="AK15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM15" t="n">
         <v>0</v>
@@ -8536,10 +8536,10 @@
         <v>0</v>
       </c>
       <c r="AT15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV15" t="n">
         <v>0</v>
@@ -8563,10 +8563,10 @@
         <v>0</v>
       </c>
       <c r="BC15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE15" t="n">
         <v>0</v>
@@ -8590,10 +8590,10 @@
         <v>0</v>
       </c>
       <c r="BL15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN15" t="n">
         <v>0</v>
@@ -8617,10 +8617,10 @@
         <v>0</v>
       </c>
       <c r="BU15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW15" t="n">
         <v>0</v>
@@ -8644,10 +8644,10 @@
         <v>0</v>
       </c>
       <c r="CD15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF15" t="n">
         <v>0</v>
@@ -8671,10 +8671,10 @@
         <v>0</v>
       </c>
       <c r="CM15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO15" t="n">
         <v>0</v>
@@ -8725,10 +8725,10 @@
         <v>0</v>
       </c>
       <c r="DE15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG15" t="n">
         <v>0</v>
@@ -8752,10 +8752,10 @@
         <v>0</v>
       </c>
       <c r="DN15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP15" t="n">
         <v>0</v>
@@ -8779,10 +8779,10 @@
         <v>0</v>
       </c>
       <c r="DW15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY15" t="n">
         <v>0</v>
@@ -8806,10 +8806,10 @@
         <v>0</v>
       </c>
       <c r="EF15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH15" t="n">
         <v>0</v>
@@ -8833,10 +8833,10 @@
         <v>0</v>
       </c>
       <c r="EO15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ15" t="n">
         <v>0</v>
@@ -8860,10 +8860,10 @@
         <v>0</v>
       </c>
       <c r="EX15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ15" t="n">
         <v>0</v>
@@ -8970,10 +8970,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -8997,10 +8997,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -9024,10 +9024,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -9051,10 +9051,10 @@
         <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -9078,10 +9078,10 @@
         <v>0</v>
       </c>
       <c r="AK16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM16" t="n">
         <v>0</v>
@@ -9105,10 +9105,10 @@
         <v>0</v>
       </c>
       <c r="AT16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV16" t="n">
         <v>0</v>
@@ -9132,10 +9132,10 @@
         <v>0</v>
       </c>
       <c r="BC16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE16" t="n">
         <v>0</v>
@@ -9159,10 +9159,10 @@
         <v>0</v>
       </c>
       <c r="BL16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN16" t="n">
         <v>0</v>
@@ -9186,10 +9186,10 @@
         <v>0</v>
       </c>
       <c r="BU16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW16" t="n">
         <v>0</v>
@@ -9213,10 +9213,10 @@
         <v>0</v>
       </c>
       <c r="CD16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF16" t="n">
         <v>0</v>
@@ -9240,10 +9240,10 @@
         <v>0</v>
       </c>
       <c r="CM16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO16" t="n">
         <v>0</v>
@@ -9294,10 +9294,10 @@
         <v>0</v>
       </c>
       <c r="DE16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG16" t="n">
         <v>0</v>
@@ -9321,10 +9321,10 @@
         <v>0</v>
       </c>
       <c r="DN16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP16" t="n">
         <v>0</v>
@@ -9348,10 +9348,10 @@
         <v>0</v>
       </c>
       <c r="DW16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY16" t="n">
         <v>0</v>
@@ -9375,10 +9375,10 @@
         <v>0</v>
       </c>
       <c r="EF16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH16" t="n">
         <v>0</v>
@@ -9402,10 +9402,10 @@
         <v>0</v>
       </c>
       <c r="EO16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ16" t="n">
         <v>0</v>
@@ -9429,10 +9429,10 @@
         <v>0</v>
       </c>
       <c r="EX16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ16" t="n">
         <v>0</v>
@@ -9539,52 +9539,52 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.1784210056348982</v>
+        <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>-0</v>
+        <v>0.464006037743842</v>
       </c>
       <c r="C17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-0.213690755922597</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.06520053230485331</v>
+        <v>-0.05623636678274033</v>
       </c>
       <c r="F17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03307158169817349</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1544997131642331</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>-0</v>
+        <v>0.3091686772893197</v>
       </c>
       <c r="L17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>-0.2493368450749698</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.09831883814102742</v>
+        <v>-0.0678724014983766</v>
       </c>
       <c r="O17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0.005947782629136813</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9593,52 +9593,52 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0.001658982967489801</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>0.09973576278518753</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-0</v>
+        <v>0.00436861355272419</v>
       </c>
       <c r="W17" t="n">
-        <v>-0.04206952031555799</v>
+        <v>0.1397611844091128</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-0.04952680775557515</v>
+        <v>-0</v>
       </c>
       <c r="Z17" t="n">
         <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.02169913920323509</v>
+        <v>-0</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>0.08363278850976616</v>
       </c>
       <c r="AD17" t="n">
         <v>-0</v>
       </c>
       <c r="AE17" t="n">
-        <v>-0</v>
+        <v>0.03235867436458721</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.01619893498133563</v>
+        <v>-0.04178331435940076</v>
       </c>
       <c r="AG17" t="n">
         <v>0</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.03460908001711176</v>
+        <v>-0</v>
       </c>
       <c r="AI17" t="n">
         <v>0</v>
@@ -9647,133 +9647,133 @@
         <v>-0</v>
       </c>
       <c r="AK17" t="n">
-        <v>0.03505939387739509</v>
+        <v>0</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>-0.01050531881593712</v>
       </c>
       <c r="AM17" t="n">
         <v>-0</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>-0.06186637562024456</v>
       </c>
       <c r="AO17" t="n">
-        <v>-0.00849945966735929</v>
+        <v>-0.01192210134947837</v>
       </c>
       <c r="AP17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.008091195421753286</v>
+        <v>-0</v>
       </c>
       <c r="AR17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.1046857783583853</v>
+        <v>0</v>
       </c>
       <c r="AU17" t="n">
-        <v>-0</v>
+        <v>0.3966580425402422</v>
       </c>
       <c r="AV17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW17" t="n">
-        <v>-0</v>
+        <v>0.06127107439789742</v>
       </c>
       <c r="AX17" t="n">
-        <v>0.001432867308579419</v>
+        <v>0.1306370379137497</v>
       </c>
       <c r="AY17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ17" t="n">
-        <v>0.01726350819495866</v>
+        <v>0</v>
       </c>
       <c r="BA17" t="n">
         <v>-0</v>
       </c>
       <c r="BB17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC17" t="n">
-        <v>0.03888467533412062</v>
+        <v>0</v>
       </c>
       <c r="BD17" t="n">
-        <v>0</v>
+        <v>0.05347188316916103</v>
       </c>
       <c r="BE17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF17" t="n">
-        <v>0</v>
+        <v>-0.2043371808784797</v>
       </c>
       <c r="BG17" t="n">
-        <v>-0.02800024862092711</v>
+        <v>-0.1681918769594767</v>
       </c>
       <c r="BH17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI17" t="n">
-        <v>0.02268504232602198</v>
+        <v>0</v>
       </c>
       <c r="BJ17" t="n">
         <v>0</v>
       </c>
       <c r="BK17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL17" t="n">
-        <v>-0.02811295416243051</v>
+        <v>-0</v>
       </c>
       <c r="BM17" t="n">
-        <v>0</v>
+        <v>0.1016645978499683</v>
       </c>
       <c r="BN17" t="n">
         <v>0</v>
       </c>
       <c r="BO17" t="n">
-        <v>0</v>
+        <v>-0.0001228360759275198</v>
       </c>
       <c r="BP17" t="n">
-        <v>0.05045082604120707</v>
+        <v>0.1742894553249103</v>
       </c>
       <c r="BQ17" t="n">
         <v>-0</v>
       </c>
       <c r="BR17" t="n">
-        <v>0.01066417051940567</v>
+        <v>-0</v>
       </c>
       <c r="BS17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT17" t="n">
         <v>-0</v>
       </c>
       <c r="BU17" t="n">
-        <v>0.06853022337980351</v>
+        <v>0</v>
       </c>
       <c r="BV17" t="n">
-        <v>0</v>
+        <v>0.1625996662776479</v>
       </c>
       <c r="BW17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX17" t="n">
-        <v>0</v>
+        <v>0.03388422312014398</v>
       </c>
       <c r="BY17" t="n">
-        <v>-0.0152497370824343</v>
+        <v>0.111371108770046</v>
       </c>
       <c r="BZ17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA17" t="n">
-        <v>0.009629424983472374</v>
+        <v>-0</v>
       </c>
       <c r="CB17" t="n">
         <v>-0</v>
@@ -9782,25 +9782,25 @@
         <v>-0</v>
       </c>
       <c r="CD17" t="n">
-        <v>-0.04651177530983507</v>
+        <v>-0</v>
       </c>
       <c r="CE17" t="n">
-        <v>0</v>
+        <v>-0.09082279854626153</v>
       </c>
       <c r="CF17" t="n">
         <v>0</v>
       </c>
       <c r="CG17" t="n">
-        <v>-0</v>
+        <v>0.005380913520061375</v>
       </c>
       <c r="CH17" t="n">
-        <v>0.02086313831147603</v>
+        <v>-0.01251183687505771</v>
       </c>
       <c r="CI17" t="n">
         <v>-0</v>
       </c>
       <c r="CJ17" t="n">
-        <v>-0.01304693728512752</v>
+        <v>0</v>
       </c>
       <c r="CK17" t="n">
         <v>0</v>
@@ -9809,160 +9809,160 @@
         <v>-0</v>
       </c>
       <c r="CM17" t="n">
-        <v>-0.006304890258252537</v>
+        <v>0</v>
       </c>
       <c r="CN17" t="n">
-        <v>-0</v>
+        <v>-0.004471039862110992</v>
       </c>
       <c r="CO17" t="n">
         <v>-0</v>
       </c>
       <c r="CP17" t="n">
-        <v>-0</v>
+        <v>-0.1611631133197839</v>
       </c>
       <c r="CQ17" t="n">
-        <v>-0.01789086669446185</v>
+        <v>-0.07520678045576151</v>
       </c>
       <c r="CR17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS17" t="n">
-        <v>-0.02039768991798299</v>
+        <v>-0</v>
       </c>
       <c r="CT17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU17" t="n">
         <v>0</v>
       </c>
       <c r="CV17" t="n">
-        <v>-0.0421356262177249</v>
+        <v>0</v>
       </c>
       <c r="CW17" t="n">
-        <v>-0</v>
+        <v>-0.06708394399390694</v>
       </c>
       <c r="CX17" t="n">
         <v>-0</v>
       </c>
       <c r="CY17" t="n">
-        <v>0</v>
+        <v>0.03345121933472785</v>
       </c>
       <c r="CZ17" t="n">
-        <v>0.009030188654555484</v>
+        <v>-0.0207512881300389</v>
       </c>
       <c r="DA17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB17" t="n">
-        <v>-0.006777641628900747</v>
+        <v>0</v>
       </c>
       <c r="DC17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD17" t="n">
         <v>0</v>
       </c>
       <c r="DE17" t="n">
-        <v>-0.003047519565163064</v>
+        <v>0</v>
       </c>
       <c r="DF17" t="n">
-        <v>0</v>
+        <v>-0.02276686092105686</v>
       </c>
       <c r="DG17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH17" t="n">
-        <v>0</v>
+        <v>0.05207944114056191</v>
       </c>
       <c r="DI17" t="n">
-        <v>-0.005742900975722079</v>
+        <v>0.02337216052914406</v>
       </c>
       <c r="DJ17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK17" t="n">
-        <v>-0.004555220366789198</v>
+        <v>-0</v>
       </c>
       <c r="DL17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM17" t="n">
         <v>0</v>
       </c>
       <c r="DN17" t="n">
-        <v>0.0120276432058872</v>
+        <v>-0</v>
       </c>
       <c r="DO17" t="n">
-        <v>0</v>
+        <v>-0.03742764311262105</v>
       </c>
       <c r="DP17" t="n">
         <v>0</v>
       </c>
       <c r="DQ17" t="n">
-        <v>0</v>
+        <v>0.006384190694356076</v>
       </c>
       <c r="DR17" t="n">
-        <v>-0.01921641109343616</v>
+        <v>-0.02685428571379275</v>
       </c>
       <c r="DS17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT17" t="n">
-        <v>0.03121211088245979</v>
+        <v>-0</v>
       </c>
       <c r="DU17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV17" t="n">
         <v>0</v>
       </c>
       <c r="DW17" t="n">
-        <v>-0.008046726419983647</v>
+        <v>-0</v>
       </c>
       <c r="DX17" t="n">
-        <v>-0</v>
+        <v>-0.04277621502120528</v>
       </c>
       <c r="DY17" t="n">
         <v>0</v>
       </c>
       <c r="DZ17" t="n">
-        <v>-0</v>
+        <v>-0.03336448705702407</v>
       </c>
       <c r="EA17" t="n">
-        <v>0.00938161868550976</v>
+        <v>-0.0598049975572133</v>
       </c>
       <c r="EB17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EC17" t="n">
-        <v>-0.001848878591903753</v>
+        <v>0</v>
       </c>
       <c r="ED17" t="n">
         <v>-0</v>
       </c>
       <c r="EE17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF17" t="n">
-        <v>-0.07211373022156803</v>
+        <v>0</v>
       </c>
       <c r="EG17" t="n">
-        <v>0</v>
+        <v>-0.0821178888512053</v>
       </c>
       <c r="EH17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI17" t="n">
-        <v>-0</v>
+        <v>-0.006177931725444511</v>
       </c>
       <c r="EJ17" t="n">
-        <v>0.01065064599716633</v>
+        <v>0.07160918356618702</v>
       </c>
       <c r="EK17" t="n">
         <v>0</v>
       </c>
       <c r="EL17" t="n">
-        <v>-0.02306339918164659</v>
+        <v>-0</v>
       </c>
       <c r="EM17" t="n">
         <v>0</v>
@@ -9971,25 +9971,25 @@
         <v>-0</v>
       </c>
       <c r="EO17" t="n">
-        <v>-0.008390348435141094</v>
+        <v>0</v>
       </c>
       <c r="EP17" t="n">
-        <v>0</v>
+        <v>-0.01779063133182174</v>
       </c>
       <c r="EQ17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER17" t="n">
-        <v>0</v>
+        <v>0.02072505532524003</v>
       </c>
       <c r="ES17" t="n">
-        <v>0.04883499000761108</v>
+        <v>0.01708695067292624</v>
       </c>
       <c r="ET17" t="n">
         <v>0</v>
       </c>
       <c r="EU17" t="n">
-        <v>0.006979358646062973</v>
+        <v>0</v>
       </c>
       <c r="EV17" t="n">
         <v>0</v>
@@ -9998,270 +9998,270 @@
         <v>-0</v>
       </c>
       <c r="EX17" t="n">
-        <v>-0.03971434295436068</v>
+        <v>0</v>
       </c>
       <c r="EY17" t="n">
-        <v>0</v>
+        <v>-0.06403190689084767</v>
       </c>
       <c r="EZ17" t="n">
         <v>0</v>
       </c>
       <c r="FA17" t="n">
-        <v>-0</v>
+        <v>-0.004942794769620109</v>
       </c>
       <c r="FB17" t="n">
-        <v>0.008337537287747009</v>
+        <v>-0.0005639592097789705</v>
       </c>
       <c r="FC17" t="n">
         <v>-0</v>
       </c>
       <c r="FD17" t="n">
-        <v>-0.007183141166969788</v>
+        <v>-0</v>
       </c>
       <c r="FE17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG17" t="n">
-        <v>0.04917107270895053</v>
+        <v>0</v>
       </c>
       <c r="FH17" t="n">
-        <v>0</v>
+        <v>0.004321361019999555</v>
       </c>
       <c r="FI17" t="n">
         <v>-0</v>
       </c>
       <c r="FJ17" t="n">
-        <v>-0</v>
+        <v>0.01939565078559337</v>
       </c>
       <c r="FK17" t="n">
-        <v>0.01520495356080839</v>
+        <v>-0.003135083571775055</v>
       </c>
       <c r="FL17" t="n">
         <v>-0</v>
       </c>
       <c r="FM17" t="n">
-        <v>0.008013593961329843</v>
+        <v>0</v>
       </c>
       <c r="FN17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP17" t="n">
-        <v>0.01503521103978125</v>
+        <v>0</v>
       </c>
       <c r="FQ17" t="n">
-        <v>0</v>
+        <v>-0.02165836749609637</v>
       </c>
       <c r="FR17" t="n">
         <v>0</v>
       </c>
       <c r="FS17" t="n">
-        <v>-0</v>
+        <v>0.05039422313082665</v>
       </c>
       <c r="FT17" t="n">
-        <v>-0.005511488760053605</v>
+        <v>-0.03165644400317966</v>
       </c>
       <c r="FU17" t="n">
         <v>-0</v>
       </c>
       <c r="FV17" t="n">
-        <v>0.005387850193888539</v>
+        <v>0</v>
       </c>
       <c r="FW17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX17" t="n">
         <v>0</v>
       </c>
       <c r="FY17" t="n">
-        <v>0.02371414994454041</v>
+        <v>-0</v>
       </c>
       <c r="FZ17" t="n">
-        <v>0</v>
+        <v>0.05240979100968161</v>
       </c>
       <c r="GA17" t="n">
         <v>-0</v>
       </c>
       <c r="GB17" t="n">
-        <v>0</v>
+        <v>-0.1042547420564951</v>
       </c>
       <c r="GC17" t="n">
         <v>-0</v>
       </c>
       <c r="GD17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE17" t="n">
-        <v>0.01710915226668012</v>
+        <v>0</v>
       </c>
       <c r="GF17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.235400290129776</v>
+        <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>-0</v>
+        <v>0.2236901653674261</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.08008218304716656</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.02592523544399708</v>
+        <v>-0.05706061209626856</v>
       </c>
       <c r="F18" t="n">
-        <v>-0</v>
+        <v>-0.1617953627012015</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H18" t="n">
         <v>-0</v>
       </c>
       <c r="I18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.2145828354515137</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>0.1894659379273365</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.09048269457434985</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.05511402568631742</v>
+        <v>-0.03440012274583153</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>-0.1572062772066234</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q18" t="n">
         <v>-0</v>
       </c>
       <c r="R18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0.005544048819565788</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>-0</v>
+        <v>0.01877541559012363</v>
       </c>
       <c r="U18" t="n">
-        <v>-0.02647924124475416</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>-0.06187956361877045</v>
+        <v>-0.01920831889176585</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>0.009138828299600209</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.008665504586779964</v>
+        <v>-0</v>
       </c>
       <c r="AC18" t="n">
-        <v>-0</v>
+        <v>-0.00848575968395603</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.006047382891962312</v>
+        <v>-0</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.02192049954796503</v>
+        <v>0.02742348770272005</v>
       </c>
       <c r="AG18" t="n">
-        <v>-0</v>
+        <v>0.002690648894797191</v>
       </c>
       <c r="AH18" t="n">
         <v>-0</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ18" t="n">
         <v>0</v>
       </c>
       <c r="AK18" t="n">
-        <v>0.03281809299415191</v>
+        <v>0</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>0.02408351570625542</v>
       </c>
       <c r="AM18" t="n">
-        <v>-0.01010972515901441</v>
+        <v>-0</v>
       </c>
       <c r="AN18" t="n">
         <v>0</v>
       </c>
       <c r="AO18" t="n">
-        <v>-0.02041791741840603</v>
+        <v>-0.005351731095185492</v>
       </c>
       <c r="AP18" t="n">
-        <v>-0</v>
+        <v>-0.02687203259610787</v>
       </c>
       <c r="AQ18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS18" t="n">
         <v>0</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.1076820518720215</v>
+        <v>-0</v>
       </c>
       <c r="AU18" t="n">
-        <v>0</v>
+        <v>0.1507701256935356</v>
       </c>
       <c r="AV18" t="n">
-        <v>-0.03894500496677717</v>
+        <v>-0</v>
       </c>
       <c r="AW18" t="n">
         <v>0</v>
       </c>
       <c r="AX18" t="n">
-        <v>0.002038248317895732</v>
+        <v>-0.02255599841015753</v>
       </c>
       <c r="AY18" t="n">
-        <v>0</v>
+        <v>-0.05540035372147048</v>
       </c>
       <c r="AZ18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA18" t="n">
         <v>-0</v>
@@ -10270,22 +10270,22 @@
         <v>0</v>
       </c>
       <c r="BC18" t="n">
-        <v>0.048914906667904</v>
+        <v>0</v>
       </c>
       <c r="BD18" t="n">
-        <v>0</v>
+        <v>0.05177891918719758</v>
       </c>
       <c r="BE18" t="n">
-        <v>-0.03175571207389664</v>
+        <v>0</v>
       </c>
       <c r="BF18" t="n">
         <v>0</v>
       </c>
       <c r="BG18" t="n">
-        <v>0.03085111836193086</v>
+        <v>-0.0591959157212214</v>
       </c>
       <c r="BH18" t="n">
-        <v>-0</v>
+        <v>-0.07844582386224749</v>
       </c>
       <c r="BI18" t="n">
         <v>0</v>
@@ -10297,25 +10297,25 @@
         <v>-0</v>
       </c>
       <c r="BL18" t="n">
-        <v>-0.01930058425816838</v>
+        <v>-0</v>
       </c>
       <c r="BM18" t="n">
-        <v>0</v>
+        <v>0.05058529276217728</v>
       </c>
       <c r="BN18" t="n">
-        <v>0.02874564082817313</v>
+        <v>0</v>
       </c>
       <c r="BO18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP18" t="n">
-        <v>0.06989042645554124</v>
+        <v>0.01499947708081137</v>
       </c>
       <c r="BQ18" t="n">
-        <v>-0</v>
+        <v>0.01835980282120872</v>
       </c>
       <c r="BR18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS18" t="n">
         <v>0</v>
@@ -10324,22 +10324,22 @@
         <v>-0</v>
       </c>
       <c r="BU18" t="n">
-        <v>0.08868663453374845</v>
+        <v>-0</v>
       </c>
       <c r="BV18" t="n">
-        <v>0</v>
+        <v>0.07648627615069933</v>
       </c>
       <c r="BW18" t="n">
-        <v>-0.0198113702934941</v>
+        <v>0</v>
       </c>
       <c r="BX18" t="n">
         <v>0</v>
       </c>
       <c r="BY18" t="n">
-        <v>0.01486687550090961</v>
+        <v>-0.02136754829659425</v>
       </c>
       <c r="BZ18" t="n">
-        <v>-0</v>
+        <v>-0.03302888841011239</v>
       </c>
       <c r="CA18" t="n">
         <v>-0</v>
@@ -10348,79 +10348,79 @@
         <v>-0</v>
       </c>
       <c r="CC18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD18" t="n">
-        <v>-0.05462028764620704</v>
+        <v>-0</v>
       </c>
       <c r="CE18" t="n">
-        <v>0</v>
+        <v>-0.03589458903815913</v>
       </c>
       <c r="CF18" t="n">
-        <v>0.02108780022928548</v>
+        <v>0</v>
       </c>
       <c r="CG18" t="n">
         <v>-0</v>
       </c>
       <c r="CH18" t="n">
-        <v>0.003434847939775773</v>
+        <v>-0.002269519853894627</v>
       </c>
       <c r="CI18" t="n">
-        <v>0</v>
+        <v>0.03804311726017649</v>
       </c>
       <c r="CJ18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK18" t="n">
         <v>0</v>
       </c>
       <c r="CL18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM18" t="n">
-        <v>-0.009926850221773174</v>
+        <v>0</v>
       </c>
       <c r="CN18" t="n">
-        <v>-0</v>
+        <v>-0.0008833799638143314</v>
       </c>
       <c r="CO18" t="n">
-        <v>0.001649755744378045</v>
+        <v>-0</v>
       </c>
       <c r="CP18" t="n">
         <v>0</v>
       </c>
       <c r="CQ18" t="n">
-        <v>-0.04131486899280734</v>
+        <v>0.0005760952829363495</v>
       </c>
       <c r="CR18" t="n">
-        <v>-0</v>
+        <v>-0.0282599015719155</v>
       </c>
       <c r="CS18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT18" t="n">
         <v>-0</v>
       </c>
       <c r="CU18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV18" t="n">
-        <v>-0.05041671635156645</v>
+        <v>-0</v>
       </c>
       <c r="CW18" t="n">
-        <v>-0</v>
+        <v>-0.02875121916033409</v>
       </c>
       <c r="CX18" t="n">
-        <v>0.02221383065689658</v>
+        <v>-0</v>
       </c>
       <c r="CY18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ18" t="n">
-        <v>-0.01195303040436346</v>
+        <v>-0.0007255696105070718</v>
       </c>
       <c r="DA18" t="n">
-        <v>-0</v>
+        <v>0.03768351293579356</v>
       </c>
       <c r="DB18" t="n">
         <v>0</v>
@@ -10432,22 +10432,22 @@
         <v>-0</v>
       </c>
       <c r="DE18" t="n">
-        <v>-0.006732411228615088</v>
+        <v>0</v>
       </c>
       <c r="DF18" t="n">
-        <v>0</v>
+        <v>-0.01453064425495513</v>
       </c>
       <c r="DG18" t="n">
-        <v>0.02080606524648715</v>
+        <v>0</v>
       </c>
       <c r="DH18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI18" t="n">
-        <v>0.0245192160502524</v>
+        <v>0.02416277996837621</v>
       </c>
       <c r="DJ18" t="n">
-        <v>-0</v>
+        <v>0.005194844261149644</v>
       </c>
       <c r="DK18" t="n">
         <v>0</v>
@@ -10456,55 +10456,55 @@
         <v>0</v>
       </c>
       <c r="DM18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN18" t="n">
-        <v>0.004276625241015306</v>
+        <v>-0</v>
       </c>
       <c r="DO18" t="n">
-        <v>0</v>
+        <v>-0.006998714500046086</v>
       </c>
       <c r="DP18" t="n">
-        <v>0.003322837291752422</v>
+        <v>0</v>
       </c>
       <c r="DQ18" t="n">
         <v>-0</v>
       </c>
       <c r="DR18" t="n">
-        <v>0.01442703461970497</v>
+        <v>0.01749878985250384</v>
       </c>
       <c r="DS18" t="n">
-        <v>-0</v>
+        <v>-0.007969609502787918</v>
       </c>
       <c r="DT18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU18" t="n">
         <v>0</v>
       </c>
       <c r="DV18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW18" t="n">
-        <v>-0.008500806211337468</v>
+        <v>-0</v>
       </c>
       <c r="DX18" t="n">
-        <v>-0</v>
+        <v>-0.03712041572962683</v>
       </c>
       <c r="DY18" t="n">
-        <v>-0.00875498277718316</v>
+        <v>0</v>
       </c>
       <c r="DZ18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA18" t="n">
-        <v>-0.001666119601671557</v>
+        <v>0.01241889268291696</v>
       </c>
       <c r="EB18" t="n">
-        <v>-0</v>
+        <v>0.01743653030606074</v>
       </c>
       <c r="EC18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED18" t="n">
         <v>-0</v>
@@ -10513,49 +10513,49 @@
         <v>0</v>
       </c>
       <c r="EF18" t="n">
-        <v>-0.08084453592938778</v>
+        <v>0</v>
       </c>
       <c r="EG18" t="n">
-        <v>0</v>
+        <v>-0.0396685130155616</v>
       </c>
       <c r="EH18" t="n">
-        <v>0.02285254096912752</v>
+        <v>0</v>
       </c>
       <c r="EI18" t="n">
         <v>-0</v>
       </c>
       <c r="EJ18" t="n">
-        <v>-0.002786562400647052</v>
+        <v>0.008875487575524388</v>
       </c>
       <c r="EK18" t="n">
-        <v>0</v>
+        <v>0.03571096574975172</v>
       </c>
       <c r="EL18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO18" t="n">
-        <v>-0.02323464024639659</v>
+        <v>0</v>
       </c>
       <c r="EP18" t="n">
-        <v>0</v>
+        <v>-0.01226075680706109</v>
       </c>
       <c r="EQ18" t="n">
-        <v>0.02563577965606521</v>
+        <v>0</v>
       </c>
       <c r="ER18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES18" t="n">
-        <v>0.006186530360788433</v>
+        <v>-0.009776754541435605</v>
       </c>
       <c r="ET18" t="n">
-        <v>-0</v>
+        <v>0.02035008030565537</v>
       </c>
       <c r="EU18" t="n">
         <v>-0</v>
@@ -10564,25 +10564,25 @@
         <v>0</v>
       </c>
       <c r="EW18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX18" t="n">
-        <v>-0.04938830682350132</v>
+        <v>0</v>
       </c>
       <c r="EY18" t="n">
-        <v>0</v>
+        <v>-0.02847507285626069</v>
       </c>
       <c r="EZ18" t="n">
-        <v>0.02080647559515589</v>
+        <v>0</v>
       </c>
       <c r="FA18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB18" t="n">
-        <v>-0.006965415207236385</v>
+        <v>0.001882318909216545</v>
       </c>
       <c r="FC18" t="n">
-        <v>0</v>
+        <v>0.03905761169621512</v>
       </c>
       <c r="FD18" t="n">
         <v>-0</v>
@@ -10594,79 +10594,79 @@
         <v>0</v>
       </c>
       <c r="FG18" t="n">
-        <v>0.04201094239337985</v>
+        <v>0</v>
       </c>
       <c r="FH18" t="n">
-        <v>-0</v>
+        <v>-0.01241297234233389</v>
       </c>
       <c r="FI18" t="n">
-        <v>0.01825275169000449</v>
+        <v>-0</v>
       </c>
       <c r="FJ18" t="n">
         <v>-0</v>
       </c>
       <c r="FK18" t="n">
-        <v>0.02719618082721167</v>
+        <v>0.001274956631300459</v>
       </c>
       <c r="FL18" t="n">
-        <v>0</v>
+        <v>0.02248705960427439</v>
       </c>
       <c r="FM18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP18" t="n">
-        <v>0.01043783643189194</v>
+        <v>0</v>
       </c>
       <c r="FQ18" t="n">
-        <v>0</v>
+        <v>0.009821790994192531</v>
       </c>
       <c r="FR18" t="n">
-        <v>0.008725092881278802</v>
+        <v>-0</v>
       </c>
       <c r="FS18" t="n">
         <v>-0</v>
       </c>
       <c r="FT18" t="n">
-        <v>0.01188185664384299</v>
+        <v>-0.02405241553919783</v>
       </c>
       <c r="FU18" t="n">
-        <v>0</v>
+        <v>0.02105405408501342</v>
       </c>
       <c r="FV18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY18" t="n">
-        <v>0.02266676756990979</v>
+        <v>-0</v>
       </c>
       <c r="FZ18" t="n">
-        <v>0</v>
+        <v>0.0116913527863489</v>
       </c>
       <c r="GA18" t="n">
-        <v>-0.01419771284882286</v>
+        <v>-0</v>
       </c>
       <c r="GB18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC18" t="n">
         <v>0</v>
       </c>
       <c r="GD18" t="n">
-        <v>-0</v>
+        <v>-0.02008225222196747</v>
       </c>
       <c r="GE18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF18" t="n">
         <v>-0</v>
@@ -10677,52 +10677,52 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.1816715566595185</v>
+        <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>-0</v>
+        <v>0.4782714593545428</v>
       </c>
       <c r="C19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>-0.1894115948988301</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.04627048822583118</v>
+        <v>-0.09490629691274956</v>
       </c>
       <c r="F19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.03266941034141311</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1697109317412727</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>-0</v>
+        <v>0.3054795686575793</v>
       </c>
       <c r="L19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>-0.2197097344254202</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.07990443120951843</v>
+        <v>-0.09949893958016359</v>
       </c>
       <c r="O19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0.004768743829926342</v>
+        <v>-0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -10731,52 +10731,52 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0.01003013913245553</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>0.1077960096535445</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>-0.006828486107908502</v>
       </c>
       <c r="W19" t="n">
-        <v>-0.05511061621122799</v>
+        <v>0.09388041128651994</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y19" t="n">
-        <v>-0.04834093946431981</v>
+        <v>-0</v>
       </c>
       <c r="Z19" t="n">
         <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.01130636490176888</v>
+        <v>-0</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>0.05856527514848074</v>
       </c>
       <c r="AD19" t="n">
         <v>-0</v>
       </c>
       <c r="AE19" t="n">
-        <v>-0</v>
+        <v>-0.01073816182508737</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.0214590694461169</v>
+        <v>-0.01830959913707527</v>
       </c>
       <c r="AG19" t="n">
         <v>0</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.03628459333426341</v>
+        <v>-0</v>
       </c>
       <c r="AI19" t="n">
         <v>0</v>
@@ -10785,106 +10785,106 @@
         <v>-0</v>
       </c>
       <c r="AK19" t="n">
-        <v>0.03197024312556878</v>
+        <v>0</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>0.01287809739128203</v>
       </c>
       <c r="AM19" t="n">
         <v>-0</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>-0.0589707505191921</v>
       </c>
       <c r="AO19" t="n">
-        <v>-0.0103944690456291</v>
+        <v>-0.05266308354040482</v>
       </c>
       <c r="AP19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.007617950434197732</v>
+        <v>-0</v>
       </c>
       <c r="AR19" t="n">
         <v>-0</v>
       </c>
       <c r="AS19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.08409194735719827</v>
+        <v>0</v>
       </c>
       <c r="AU19" t="n">
-        <v>0</v>
+        <v>0.3955811274091116</v>
       </c>
       <c r="AV19" t="n">
         <v>-0</v>
       </c>
       <c r="AW19" t="n">
-        <v>-0</v>
+        <v>0.03227531954540133</v>
       </c>
       <c r="AX19" t="n">
-        <v>0.01263393975959331</v>
+        <v>0.08510792053750782</v>
       </c>
       <c r="AY19" t="n">
         <v>-0</v>
       </c>
       <c r="AZ19" t="n">
-        <v>0.02049516850408977</v>
+        <v>0</v>
       </c>
       <c r="BA19" t="n">
         <v>-0</v>
       </c>
       <c r="BB19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC19" t="n">
-        <v>0.03750801863520514</v>
+        <v>0</v>
       </c>
       <c r="BD19" t="n">
-        <v>0</v>
+        <v>0.02417466746100158</v>
       </c>
       <c r="BE19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF19" t="n">
-        <v>0</v>
+        <v>-0.1882588326087855</v>
       </c>
       <c r="BG19" t="n">
-        <v>-0.02011843049381214</v>
+        <v>-0.1222923605297916</v>
       </c>
       <c r="BH19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI19" t="n">
-        <v>0.01997637747210413</v>
+        <v>0</v>
       </c>
       <c r="BJ19" t="n">
         <v>0</v>
       </c>
       <c r="BK19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL19" t="n">
-        <v>-0.02061194052307772</v>
+        <v>-0</v>
       </c>
       <c r="BM19" t="n">
-        <v>0</v>
+        <v>0.1533617734419133</v>
       </c>
       <c r="BN19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO19" t="n">
-        <v>0</v>
+        <v>0.04130492429331169</v>
       </c>
       <c r="BP19" t="n">
-        <v>0.04059989568975873</v>
+        <v>0.1641448300559005</v>
       </c>
       <c r="BQ19" t="n">
         <v>-0</v>
       </c>
       <c r="BR19" t="n">
-        <v>0.00831344383146327</v>
+        <v>0</v>
       </c>
       <c r="BS19" t="n">
         <v>-0</v>
@@ -10893,52 +10893,52 @@
         <v>-0</v>
       </c>
       <c r="BU19" t="n">
-        <v>0.06151635143393025</v>
+        <v>0</v>
       </c>
       <c r="BV19" t="n">
-        <v>0</v>
+        <v>0.1844227469771434</v>
       </c>
       <c r="BW19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX19" t="n">
-        <v>0</v>
+        <v>0.01822151604457413</v>
       </c>
       <c r="BY19" t="n">
-        <v>-0.007408590376280658</v>
+        <v>0.05605173382089629</v>
       </c>
       <c r="BZ19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA19" t="n">
-        <v>0.01062680615511728</v>
+        <v>-0</v>
       </c>
       <c r="CB19" t="n">
         <v>-0</v>
       </c>
       <c r="CC19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD19" t="n">
-        <v>-0.03997765909860648</v>
+        <v>0</v>
       </c>
       <c r="CE19" t="n">
-        <v>0</v>
+        <v>-0.07923880815693203</v>
       </c>
       <c r="CF19" t="n">
         <v>0</v>
       </c>
       <c r="CG19" t="n">
-        <v>-0</v>
+        <v>0.004831706402358455</v>
       </c>
       <c r="CH19" t="n">
-        <v>0.01062190556943805</v>
+        <v>-0.004544984842683445</v>
       </c>
       <c r="CI19" t="n">
         <v>-0</v>
       </c>
       <c r="CJ19" t="n">
-        <v>-0.01167824542491564</v>
+        <v>0</v>
       </c>
       <c r="CK19" t="n">
         <v>0</v>
@@ -10947,52 +10947,52 @@
         <v>-0</v>
       </c>
       <c r="CM19" t="n">
-        <v>-0.00668942751739626</v>
+        <v>0</v>
       </c>
       <c r="CN19" t="n">
-        <v>-0</v>
+        <v>-0.01574379932668527</v>
       </c>
       <c r="CO19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP19" t="n">
-        <v>-0</v>
+        <v>-0.08951030982185573</v>
       </c>
       <c r="CQ19" t="n">
-        <v>-0.02785018798550701</v>
+        <v>-0.08893722397694123</v>
       </c>
       <c r="CR19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS19" t="n">
-        <v>-0.0195141552413334</v>
+        <v>-0</v>
       </c>
       <c r="CT19" t="n">
         <v>-0</v>
       </c>
       <c r="CU19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV19" t="n">
-        <v>-0.03737908784662018</v>
+        <v>0</v>
       </c>
       <c r="CW19" t="n">
-        <v>-0</v>
+        <v>-0.05251758135050987</v>
       </c>
       <c r="CX19" t="n">
         <v>-0</v>
       </c>
       <c r="CY19" t="n">
-        <v>0</v>
+        <v>0.03457433797983273</v>
       </c>
       <c r="CZ19" t="n">
-        <v>0.002363375064323163</v>
+        <v>-0.01279026147411001</v>
       </c>
       <c r="DA19" t="n">
         <v>0</v>
       </c>
       <c r="DB19" t="n">
-        <v>-0.006396003495124935</v>
+        <v>0</v>
       </c>
       <c r="DC19" t="n">
         <v>-0</v>
@@ -11001,133 +11001,133 @@
         <v>0</v>
       </c>
       <c r="DE19" t="n">
-        <v>-0.004578813468642016</v>
+        <v>0</v>
       </c>
       <c r="DF19" t="n">
-        <v>0</v>
+        <v>-0.04505374610212851</v>
       </c>
       <c r="DG19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH19" t="n">
-        <v>0</v>
+        <v>0.03943452991075673</v>
       </c>
       <c r="DI19" t="n">
-        <v>-0.002344420726153872</v>
+        <v>0.03326546437488605</v>
       </c>
       <c r="DJ19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK19" t="n">
-        <v>-0.004777900436402865</v>
+        <v>-0</v>
       </c>
       <c r="DL19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM19" t="n">
         <v>0</v>
       </c>
       <c r="DN19" t="n">
-        <v>0.01279751557900185</v>
+        <v>-0</v>
       </c>
       <c r="DO19" t="n">
-        <v>0</v>
+        <v>-0.04342295432720455</v>
       </c>
       <c r="DP19" t="n">
         <v>0</v>
       </c>
       <c r="DQ19" t="n">
-        <v>-0</v>
+        <v>0.01135203416512043</v>
       </c>
       <c r="DR19" t="n">
-        <v>-0.02638966302768973</v>
+        <v>-0.03556450625359007</v>
       </c>
       <c r="DS19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT19" t="n">
-        <v>0.02792060766984249</v>
+        <v>-0</v>
       </c>
       <c r="DU19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV19" t="n">
         <v>0</v>
       </c>
       <c r="DW19" t="n">
-        <v>-0.001011913245764728</v>
+        <v>-0</v>
       </c>
       <c r="DX19" t="n">
-        <v>-0</v>
+        <v>-0.09779877077169984</v>
       </c>
       <c r="DY19" t="n">
         <v>0</v>
       </c>
       <c r="DZ19" t="n">
-        <v>-0</v>
+        <v>-0.01483689547975089</v>
       </c>
       <c r="EA19" t="n">
-        <v>0.004139996632983252</v>
+        <v>0.04032926498103225</v>
       </c>
       <c r="EB19" t="n">
         <v>-0</v>
       </c>
       <c r="EC19" t="n">
-        <v>-0.000965893227997999</v>
+        <v>-0</v>
       </c>
       <c r="ED19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF19" t="n">
-        <v>-0.06469033308854374</v>
+        <v>0</v>
       </c>
       <c r="EG19" t="n">
-        <v>0</v>
+        <v>-0.06771867336228811</v>
       </c>
       <c r="EH19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI19" t="n">
-        <v>-0</v>
+        <v>0.015212052951692</v>
       </c>
       <c r="EJ19" t="n">
-        <v>0.004160174452262164</v>
+        <v>0.05665713826190658</v>
       </c>
       <c r="EK19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL19" t="n">
-        <v>-0.02184462373791474</v>
+        <v>-0</v>
       </c>
       <c r="EM19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN19" t="n">
         <v>-0</v>
       </c>
       <c r="EO19" t="n">
-        <v>-0.0165572617393733</v>
+        <v>0</v>
       </c>
       <c r="EP19" t="n">
-        <v>0</v>
+        <v>-0.0002038601761399163</v>
       </c>
       <c r="EQ19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER19" t="n">
-        <v>0</v>
+        <v>0.0002849429368399326</v>
       </c>
       <c r="ES19" t="n">
-        <v>0.04790824362261144</v>
+        <v>0.03778278063671914</v>
       </c>
       <c r="ET19" t="n">
         <v>0</v>
       </c>
       <c r="EU19" t="n">
-        <v>0.006296444044288574</v>
+        <v>-0</v>
       </c>
       <c r="EV19" t="n">
         <v>0</v>
@@ -11136,112 +11136,112 @@
         <v>-0</v>
       </c>
       <c r="EX19" t="n">
-        <v>-0.03473404010241432</v>
+        <v>0</v>
       </c>
       <c r="EY19" t="n">
-        <v>0</v>
+        <v>-0.05089368823424342</v>
       </c>
       <c r="EZ19" t="n">
         <v>0</v>
       </c>
       <c r="FA19" t="n">
-        <v>0</v>
+        <v>0.001197502785281838</v>
       </c>
       <c r="FB19" t="n">
-        <v>0.002065122451343189</v>
+        <v>0.01542012996633939</v>
       </c>
       <c r="FC19" t="n">
         <v>-0</v>
       </c>
       <c r="FD19" t="n">
-        <v>-0.006671737231826647</v>
+        <v>-0</v>
       </c>
       <c r="FE19" t="n">
         <v>0</v>
       </c>
       <c r="FF19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG19" t="n">
-        <v>0.03875748969305084</v>
+        <v>0</v>
       </c>
       <c r="FH19" t="n">
-        <v>0</v>
+        <v>-0.06070096715971212</v>
       </c>
       <c r="FI19" t="n">
         <v>-0</v>
       </c>
       <c r="FJ19" t="n">
-        <v>-0</v>
+        <v>0.004776559500658016</v>
       </c>
       <c r="FK19" t="n">
-        <v>0.02130286620576446</v>
+        <v>0.04627201818263581</v>
       </c>
       <c r="FL19" t="n">
         <v>-0</v>
       </c>
       <c r="FM19" t="n">
-        <v>0.006581048922181511</v>
+        <v>0</v>
       </c>
       <c r="FN19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP19" t="n">
-        <v>0.007986954052876622</v>
+        <v>0</v>
       </c>
       <c r="FQ19" t="n">
-        <v>0</v>
+        <v>-0.04319925203532338</v>
       </c>
       <c r="FR19" t="n">
         <v>0</v>
       </c>
       <c r="FS19" t="n">
-        <v>-0</v>
+        <v>0.02396726819214683</v>
       </c>
       <c r="FT19" t="n">
-        <v>0.005529290139135406</v>
+        <v>-0.0518789332825917</v>
       </c>
       <c r="FU19" t="n">
         <v>-0</v>
       </c>
       <c r="FV19" t="n">
-        <v>0.00422307215610321</v>
+        <v>-0</v>
       </c>
       <c r="FW19" t="n">
         <v>0</v>
       </c>
       <c r="FX19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY19" t="n">
-        <v>0.02961878700110047</v>
+        <v>-0</v>
       </c>
       <c r="FZ19" t="n">
-        <v>0</v>
+        <v>0.05615709330700719</v>
       </c>
       <c r="GA19" t="n">
         <v>-0</v>
       </c>
       <c r="GB19" t="n">
-        <v>0</v>
+        <v>-0.1078446001861136</v>
       </c>
       <c r="GC19" t="n">
         <v>-0</v>
       </c>
       <c r="GD19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE19" t="n">
-        <v>0.01656356721819481</v>
+        <v>0</v>
       </c>
       <c r="GF19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
   </sheetData>
